--- a/RR/Esterni/Analisi dei Requisiti/Requisiti/Specifica/specifica.xlsx
+++ b/RR/Esterni/Analisi dei Requisiti/Requisiti/Specifica/specifica.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Foglio1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="355">
   <si>
     <t>Specifica Requisiti</t>
   </si>
@@ -814,15 +820,304 @@
   <si>
     <t>UC 1.9.5</t>
   </si>
+  <si>
+    <t>RF70</t>
+  </si>
+  <si>
+    <t>L'utente desktop deve essere in grado di gestire un'infografica già creata</t>
+  </si>
+  <si>
+    <t>UC 1.17</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di selezionare una presentazione da cui produrre l'infografica</t>
+  </si>
+  <si>
+    <t>UC 1.17.1</t>
+  </si>
+  <si>
+    <t>-&gt;RF70.1</t>
+  </si>
+  <si>
+    <t>-&gt;RF70.2</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di selezionare il template di infografica</t>
+  </si>
+  <si>
+    <t>-&gt;RF70.3</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di selezionare gli elementi del template</t>
+  </si>
+  <si>
+    <t>-&gt;RF70.4</t>
+  </si>
+  <si>
+    <t>--&gt;RF70.4.1</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di modificare l'infografica</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di modificare un elemento dell'infografica</t>
+  </si>
+  <si>
+    <t>---&gt;RF70.4.1.1</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di cambiare le dimensioni di un oggetto grafico dell'infografica</t>
+  </si>
+  <si>
+    <t>---&gt;RF70.4.1.2</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di apportare modifiche a un oggetto testuale dell'infografica</t>
+  </si>
+  <si>
+    <t>----&gt;RF70.4.1.2.1</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.1.2</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.1.1</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.1</t>
+  </si>
+  <si>
+    <t>UC 1.17.4</t>
+  </si>
+  <si>
+    <t>UC 1.17.3</t>
+  </si>
+  <si>
+    <t>UC 1.17.2</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.1.2.1</t>
+  </si>
+  <si>
+    <t>----&gt;RF70.4.1.2.2</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di modificare i caratteri (font) dell'elemento testuale</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di modificare la dimensione dei caratteri dell'elemento testuale</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.1.2.2</t>
+  </si>
+  <si>
+    <t>----&gt;RF70.4.1.2.3</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di cambiare la formattazione di un elemento testuale (corsivo, grassetto, sottolineato)</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.1.2.3</t>
+  </si>
+  <si>
+    <t>----&gt;RF70.4.1.2.4</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di cambiare il colore della scritta dell'elemento testuale</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.1.2.4</t>
+  </si>
+  <si>
+    <t>----&gt;RF70.4.1.2.5</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di cambiare il colore dello sfondo della scritta dell'elemento testuale (evidenziazione)</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.1.2.5</t>
+  </si>
+  <si>
+    <t>---&gt;RF70.4.1.3</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di cambiare la posizione dell'oggetto</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.1.3</t>
+  </si>
+  <si>
+    <t>--&gt;RF70.4.2</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di rimuovere lo sfondo dell'infografica</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.2</t>
+  </si>
+  <si>
+    <t>--&gt;RF70.4.3</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di inserire uno sfondo nell'infografica</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.3</t>
+  </si>
+  <si>
+    <t>--&gt;RF70.4.4</t>
+  </si>
+  <si>
+    <t>--&gt;RF70.4.5</t>
+  </si>
+  <si>
+    <t>--&gt;RF70.4.6</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.4</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.5</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.6</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di inserire un elemento grafico nell'infografica</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di inserire un elemento testuale nell'infografica</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di inserire un frame nella sua interezza all'interno dell'infografica</t>
+  </si>
+  <si>
+    <t>--&gt;RF70.4.7</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.7</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di eliminare un elemento grafico o testuale all'interno dell'infografica</t>
+  </si>
+  <si>
+    <t>-&gt;RF70.5</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di salvare l'infografica nel suo spazio</t>
+  </si>
+  <si>
+    <t>UC 1.17.5</t>
+  </si>
+  <si>
+    <t>-&gt;RF70.6</t>
+  </si>
+  <si>
+    <t>-&gt;RF70.7</t>
+  </si>
+  <si>
+    <t>UC 1.17.6</t>
+  </si>
+  <si>
+    <t>UC 1.17.7</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di annullare una modifica appena effettuata all'infografica o di ripristinarla</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di esportare un'infografica in formato stampabile</t>
+  </si>
+  <si>
+    <t>RF73</t>
+  </si>
+  <si>
+    <t>L'utente desktop deve essere in grado di creare un'infografica</t>
+  </si>
+  <si>
+    <t>UC 1.6</t>
+  </si>
+  <si>
+    <t>Qualità</t>
+  </si>
+  <si>
+    <t>Obbligatorio</t>
+  </si>
+  <si>
+    <t>Sarà fornita una documentazione esaustiva delle funzionalità dell'applicazione</t>
+  </si>
+  <si>
+    <t>Sarà fornito un tutorial interattivo per la creazione delle presentazioni</t>
+  </si>
+  <si>
+    <t>Sarà fornita un documentazione esaustiva riguardo l'utilizzo del sistema da parte dell'amministratore</t>
+  </si>
+  <si>
+    <t>Il sistema deve essere accompagnato dalla documentazione sui test eseguiti</t>
+  </si>
+  <si>
+    <t>Il sistema dovrà essere utilizzabile anche in assenza di rete</t>
+  </si>
+  <si>
+    <t>Interna</t>
+  </si>
+  <si>
+    <t>Qualità
+Obbligatorio</t>
+  </si>
+  <si>
+    <t>Qualità
+Desiderabile</t>
+  </si>
+  <si>
+    <t>RQ1</t>
+  </si>
+  <si>
+    <t>RQ4</t>
+  </si>
+  <si>
+    <t>RQ7</t>
+  </si>
+  <si>
+    <t>RQ10</t>
+  </si>
+  <si>
+    <t>RQ13</t>
+  </si>
+  <si>
+    <t>Vincoli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>QOB-5</t>
+  </si>
+  <si>
+    <t>Il sistema dovrà essere funzionante su dispositivi Desktop ma anche su dispositivi mobile aventi sistema operativi Android,IOS,Windows Phone</t>
+  </si>
+  <si>
+    <t>RQ5</t>
+  </si>
+  <si>
+    <t>RV1</t>
+  </si>
+  <si>
+    <t>Vincolo
+Desiderabile</t>
+  </si>
+  <si>
+    <t>Il sistema deve essere seguire le linee guida del material design fornite dalla google</t>
+  </si>
+  <si>
+    <t>Proponente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -839,11 +1134,6 @@
       <name val="Verdana"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -852,6 +1142,35 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="F"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Serif"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -929,111 +1248,230 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="27">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1225,7 +1663,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1234,7 +1672,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1243,7 +1681,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1252,7 +1690,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1261,7 +1699,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1270,7 +1708,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1382,8 +1820,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1391,14 +1829,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1417,7 +1855,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1425,7 +1863,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1453,7 +1891,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1479,7 +1917,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1505,7 +1943,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1531,7 +1969,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1557,7 +1995,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1583,7 +2021,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1609,7 +2047,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1635,7 +2073,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1661,7 +2099,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1674,9 +2112,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1692,7 +2136,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1711,7 +2155,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1737,7 +2181,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1763,7 +2207,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1789,7 +2233,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1815,7 +2259,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1841,7 +2285,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1867,7 +2311,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1893,7 +2337,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1919,7 +2363,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1945,7 +2389,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1958,9 +2402,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1973,7 +2423,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1992,7 +2442,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2022,7 +2472,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2048,7 +2498,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2074,7 +2524,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2100,7 +2550,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2126,7 +2576,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2152,7 +2602,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2178,7 +2628,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2204,7 +2654,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2230,7 +2680,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2243,1260 +2693,1735 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D92"/>
+  <dimension ref="A1:IV125"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
-    <col min="5" max="256" width="8.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11" style="12" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" style="1" customWidth="1"/>
+    <col min="5" max="256" width="8.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="18.95" customHeight="1">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" ht="20.65" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.65" customHeight="1">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="86.85" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:4" ht="86.85" customHeight="1">
+      <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="86.85" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" spans="1:4" ht="86.85" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="5">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="86.85" customHeight="1">
-      <c r="A5" t="s" s="5">
+    <row r="5" spans="1:4" ht="86.85" customHeight="1">
+      <c r="A5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="44.45" customHeight="1">
-      <c r="A6" t="s" s="5">
+    <row r="6" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s" s="5">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="44.45" customHeight="1">
-      <c r="A7" t="s" s="5">
+    <row r="7" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s" s="5">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="44.45" customHeight="1">
-      <c r="A8" t="s" s="5">
+    <row r="8" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s" s="5">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="5">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s" s="5">
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="72.4" customHeight="1">
-      <c r="A9" t="s" s="5">
+    <row r="9" spans="1:4" ht="72.400000000000006" customHeight="1">
+      <c r="A9" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s" s="5">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s" s="5">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="44.45" customHeight="1">
-      <c r="A10" t="s" s="5">
+    <row r="10" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s" s="5">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s" s="5">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="44.45" customHeight="1">
-      <c r="A11" t="s" s="5">
+    <row r="11" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A11" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s" s="5">
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s" s="5">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s" s="5">
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" ht="32.45" customHeight="1">
-      <c r="A12" t="s" s="5">
+    <row r="12" spans="1:4" ht="32.450000000000003" customHeight="1">
+      <c r="A12" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s" s="5">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="5">
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" ht="32.45" customHeight="1">
-      <c r="A13" t="s" s="5">
+    <row r="13" spans="1:4" ht="32.450000000000003" customHeight="1">
+      <c r="A13" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s" s="5">
+      <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s" s="5">
+      <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s" s="5">
+      <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" ht="44.45" customHeight="1">
-      <c r="A14" t="s" s="5">
+    <row r="14" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A14" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s" s="5">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s" s="5">
+      <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" ht="56.45" customHeight="1">
-      <c r="A15" t="s" s="5">
+    <row r="15" spans="1:4" ht="56.45" customHeight="1">
+      <c r="A15" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s" s="5">
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s" s="5">
+      <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s" s="5">
+      <c r="D15" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" ht="32.45" customHeight="1">
-      <c r="A16" t="s" s="5">
+    <row r="16" spans="1:4" ht="32.450000000000003" customHeight="1">
+      <c r="A16" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s" s="5">
+      <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s" s="5">
+      <c r="C16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D16" t="s" s="5">
+      <c r="D16" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" ht="44.45" customHeight="1">
-      <c r="A17" t="s" s="5">
+    <row r="17" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A17" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B17" t="s" s="5">
+      <c r="B17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s" s="5">
+      <c r="C17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s" s="5">
+      <c r="D17" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" ht="56.45" customHeight="1">
-      <c r="A18" t="s" s="5">
+    <row r="18" spans="1:4" ht="56.45" customHeight="1">
+      <c r="A18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s" s="5">
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s" s="5">
+      <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s" s="5">
+      <c r="D18" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" ht="56.45" customHeight="1">
-      <c r="A19" t="s" s="5">
+    <row r="19" spans="1:4" ht="56.45" customHeight="1">
+      <c r="A19" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B19" t="s" s="5">
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s" s="5">
+      <c r="C19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D19" t="s" s="5">
+      <c r="D19" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" ht="44.45" customHeight="1">
-      <c r="A20" t="s" s="5">
+    <row r="20" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A20" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="B20" t="s" s="5">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s" s="5">
+      <c r="C20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s" s="5">
+      <c r="D20" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" ht="32.45" customHeight="1">
-      <c r="A21" t="s" s="5">
+    <row r="21" spans="1:4" ht="32.450000000000003" customHeight="1">
+      <c r="A21" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B21" t="s" s="5">
+      <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="s" s="5">
+      <c r="C21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D21" t="s" s="5">
+      <c r="D21" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" ht="32.45" customHeight="1">
-      <c r="A22" t="s" s="5">
+    <row r="22" spans="1:4" ht="32.450000000000003" customHeight="1">
+      <c r="A22" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="B22" t="s" s="5">
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s" s="5">
+      <c r="C22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D22" t="s" s="5">
+      <c r="D22" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" ht="44.45" customHeight="1">
-      <c r="A23" t="s" s="5">
+    <row r="23" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A23" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B23" t="s" s="5">
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s" s="5">
+      <c r="C23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D23" t="s" s="5">
+      <c r="D23" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" ht="44.45" customHeight="1">
-      <c r="A24" t="s" s="5">
+    <row r="24" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A24" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s" s="5">
+      <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s" s="5">
+      <c r="C24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D24" t="s" s="5">
+      <c r="D24" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" ht="44.45" customHeight="1">
-      <c r="A25" t="s" s="5">
+    <row r="25" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A25" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B25" t="s" s="5">
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" t="s" s="5">
+      <c r="C25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D25" t="s" s="5">
+      <c r="D25" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" ht="44.45" customHeight="1">
-      <c r="A26" t="s" s="5">
+    <row r="26" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A26" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B26" t="s" s="5">
+      <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" t="s" s="5">
+      <c r="C26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D26" t="s" s="5">
+      <c r="D26" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" ht="44.45" customHeight="1">
-      <c r="A27" t="s" s="5">
+    <row r="27" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A27" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B27" t="s" s="5">
+      <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="5">
+      <c r="C27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D27" t="s" s="5">
+      <c r="D27" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" ht="68.45" customHeight="1">
-      <c r="A28" t="s" s="5">
+    <row r="28" spans="1:4" ht="68.45" customHeight="1">
+      <c r="A28" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B28" t="s" s="5">
+      <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="5">
+      <c r="C28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s" s="5">
+      <c r="D28" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" ht="68.45" customHeight="1">
-      <c r="A29" t="s" s="5">
+    <row r="29" spans="1:4" ht="68.45" customHeight="1">
+      <c r="A29" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B29" t="s" s="5">
+      <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29" t="s" s="5">
+      <c r="C29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D29" t="s" s="5">
+      <c r="D29" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" ht="44.45" customHeight="1">
-      <c r="A30" t="s" s="5">
+    <row r="30" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A30" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B30" t="s" s="5">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" t="s" s="5">
+      <c r="C30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D30" t="s" s="5">
+      <c r="D30" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" ht="56.45" customHeight="1">
-      <c r="A31" t="s" s="5">
+    <row r="31" spans="1:4" ht="56.45" customHeight="1">
+      <c r="A31" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B31" t="s" s="5">
+      <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="5">
+      <c r="C31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D31" t="s" s="5">
+      <c r="D31" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" ht="44.45" customHeight="1">
-      <c r="A32" t="s" s="5">
+    <row r="32" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A32" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="B32" t="s" s="5">
+      <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="5">
+      <c r="C32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D32" t="s" s="5">
+      <c r="D32" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" ht="44.45" customHeight="1">
-      <c r="A33" t="s" s="5">
+    <row r="33" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A33" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B33" t="s" s="5">
+      <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="5">
+      <c r="C33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D33" t="s" s="5">
+      <c r="D33" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" ht="44.45" customHeight="1">
-      <c r="A34" t="s" s="5">
+    <row r="34" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A34" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B34" t="s" s="5">
+      <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="5">
+      <c r="C34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D34" t="s" s="5">
+      <c r="D34" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" ht="44.45" customHeight="1">
-      <c r="A35" t="s" s="5">
+    <row r="35" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A35" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B35" t="s" s="5">
+      <c r="B35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="5">
+      <c r="C35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D35" t="s" s="5">
+      <c r="D35" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" ht="44.45" customHeight="1">
-      <c r="A36" t="s" s="5">
+    <row r="36" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A36" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="B36" t="s" s="5">
+      <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C36" t="s" s="5">
+      <c r="C36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D36" t="s" s="5">
+      <c r="D36" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" ht="44.45" customHeight="1">
-      <c r="A37" t="s" s="5">
+    <row r="37" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A37" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B37" t="s" s="5">
+      <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C37" t="s" s="5">
+      <c r="C37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D37" t="s" s="5">
+      <c r="D37" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" ht="44.45" customHeight="1">
-      <c r="A38" t="s" s="5">
+    <row r="38" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A38" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="B38" t="s" s="5">
+      <c r="B38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C38" t="s" s="5">
+      <c r="C38" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D38" t="s" s="5">
+      <c r="D38" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" ht="44.45" customHeight="1">
-      <c r="A39" t="s" s="5">
+    <row r="39" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A39" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B39" t="s" s="5">
+      <c r="B39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C39" t="s" s="5">
+      <c r="C39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D39" t="s" s="5">
+      <c r="D39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" ht="56.45" customHeight="1">
-      <c r="A40" t="s" s="5">
+    <row r="40" spans="1:4" ht="56.45" customHeight="1">
+      <c r="A40" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="B40" t="s" s="5">
+      <c r="B40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C40" t="s" s="5">
+      <c r="C40" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D40" t="s" s="5">
+      <c r="D40" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" ht="44.45" customHeight="1">
-      <c r="A41" t="s" s="5">
+    <row r="41" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A41" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="B41" t="s" s="5">
+      <c r="B41" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C41" t="s" s="5">
+      <c r="C41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D41" t="s" s="5">
+      <c r="D41" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" ht="44.45" customHeight="1">
-      <c r="A42" t="s" s="5">
+    <row r="42" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A42" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="B42" t="s" s="5">
+      <c r="B42" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="5">
+      <c r="C42" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D42" t="s" s="5">
+      <c r="D42" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" ht="44.45" customHeight="1">
-      <c r="A43" t="s" s="5">
+    <row r="43" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A43" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B43" t="s" s="5">
+      <c r="B43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="5">
+      <c r="C43" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="D43" t="s" s="5">
+      <c r="D43" s="2" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="44" ht="44.45" customHeight="1">
-      <c r="A44" t="s" s="5">
+    <row r="44" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A44" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B44" t="s" s="5">
+      <c r="B44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="5">
+      <c r="C44" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="D44" t="s" s="5">
+      <c r="D44" s="2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="45" ht="44.45" customHeight="1">
-      <c r="A45" t="s" s="5">
+    <row r="45" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A45" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="B45" t="s" s="5">
+      <c r="B45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="5">
+      <c r="C45" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D45" t="s" s="5">
+      <c r="D45" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="46" ht="44.45" customHeight="1">
-      <c r="A46" t="s" s="5">
+    <row r="46" spans="1:4" ht="44.45" customHeight="1">
+      <c r="A46" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B46" t="s" s="5">
+      <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="5">
+      <c r="C46" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D46" t="s" s="5">
+      <c r="D46" s="2" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="47" ht="67.15" customHeight="1">
-      <c r="A47" t="s" s="5">
+    <row r="47" spans="1:4" ht="67.150000000000006" customHeight="1">
+      <c r="A47" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B47" t="s" s="5">
+      <c r="B47" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C47" t="s" s="5">
+      <c r="C47" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D47" t="s" s="5">
+      <c r="D47" s="2" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="48" ht="65.1" customHeight="1">
-      <c r="A48" t="s" s="5">
+    <row r="48" spans="1:4" ht="65.099999999999994" customHeight="1">
+      <c r="A48" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B48" t="s" s="5">
+      <c r="B48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C48" t="s" s="5">
+      <c r="C48" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="D48" t="s" s="5">
+      <c r="D48" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="49" ht="53.1" customHeight="1">
-      <c r="A49" t="s" s="5">
+    <row r="49" spans="1:4" ht="53.1" customHeight="1">
+      <c r="A49" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B49" t="s" s="5">
+      <c r="B49" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C49" t="s" s="5">
+      <c r="C49" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D49" t="s" s="5">
+      <c r="D49" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" ht="53.1" customHeight="1">
-      <c r="A50" t="s" s="5">
+    <row r="50" spans="1:4" ht="53.1" customHeight="1">
+      <c r="A50" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="B50" t="s" s="5">
+      <c r="B50" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C50" t="s" s="5">
+      <c r="C50" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D50" t="s" s="5">
+      <c r="D50" s="2" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="51" ht="53.1" customHeight="1">
-      <c r="A51" t="s" s="5">
+    <row r="51" spans="1:4" ht="53.1" customHeight="1">
+      <c r="A51" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="B51" t="s" s="5">
+      <c r="B51" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C51" t="s" s="5">
+      <c r="C51" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D51" t="s" s="5">
+      <c r="D51" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="52" ht="53.1" customHeight="1">
-      <c r="A52" t="s" s="5">
+    <row r="52" spans="1:4" ht="53.1" customHeight="1">
+      <c r="A52" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B52" t="s" s="5">
+      <c r="B52" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C52" t="s" s="5">
+      <c r="C52" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="D52" t="s" s="5">
+      <c r="D52" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="53" ht="42.6" customHeight="1">
-      <c r="A53" t="s" s="5">
+    <row r="53" spans="1:4" ht="42.6" customHeight="1">
+      <c r="A53" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="B53" t="s" s="5">
+      <c r="B53" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C53" t="s" s="5">
+      <c r="C53" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D53" t="s" s="5">
+      <c r="D53" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="54" ht="41.1" customHeight="1">
-      <c r="A54" t="s" s="5">
+    <row r="54" spans="1:4" ht="41.1" customHeight="1">
+      <c r="A54" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="B54" t="s" s="5">
+      <c r="B54" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C54" t="s" s="5">
+      <c r="C54" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D54" t="s" s="5">
+      <c r="D54" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="55" ht="41.1" customHeight="1">
-      <c r="A55" t="s" s="5">
+    <row r="55" spans="1:4" ht="41.1" customHeight="1">
+      <c r="A55" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="B55" t="s" s="5">
+      <c r="B55" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C55" t="s" s="5">
+      <c r="C55" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D55" t="s" s="5">
+      <c r="D55" s="2" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="56" ht="41.1" customHeight="1">
-      <c r="A56" t="s" s="5">
+    <row r="56" spans="1:4" ht="41.1" customHeight="1">
+      <c r="A56" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="B56" t="s" s="5">
+      <c r="B56" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C56" t="s" s="5">
+      <c r="C56" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D56" t="s" s="5">
+      <c r="D56" s="2" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="57" ht="41.1" customHeight="1">
-      <c r="A57" t="s" s="5">
+    <row r="57" spans="1:4" ht="41.1" customHeight="1">
+      <c r="A57" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B57" t="s" s="5">
+      <c r="B57" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C57" t="s" s="5">
+      <c r="C57" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D57" t="s" s="5">
+      <c r="D57" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="58" ht="41.1" customHeight="1">
-      <c r="A58" t="s" s="5">
+    <row r="58" spans="1:4" ht="41.1" customHeight="1">
+      <c r="A58" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="B58" t="s" s="5">
+      <c r="B58" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C58" t="s" s="5">
+      <c r="C58" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D58" t="s" s="5">
+      <c r="D58" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="59" ht="41.1" customHeight="1">
-      <c r="A59" t="s" s="6">
+    <row r="59" spans="1:4" ht="41.1" customHeight="1">
+      <c r="A59" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="B59" t="s" s="6">
+      <c r="B59" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C59" t="s" s="5">
+      <c r="C59" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D59" t="s" s="6">
+      <c r="D59" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="60" ht="55.5" customHeight="1">
-      <c r="A60" t="s" s="7">
+    <row r="60" spans="1:4" ht="55.5" customHeight="1">
+      <c r="A60" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="B60" t="s" s="7">
+      <c r="B60" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C60" t="s" s="7">
+      <c r="C60" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D60" t="s" s="7">
+      <c r="D60" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="61" ht="62.25" customHeight="1">
-      <c r="A61" t="s" s="7">
+    <row r="61" spans="1:4" ht="62.25" customHeight="1">
+      <c r="A61" s="11" t="s">
         <v>187</v>
       </c>
-      <c r="B61" t="s" s="7">
+      <c r="B61" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="7">
+      <c r="C61" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D61" t="s" s="7">
+      <c r="D61" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="62" ht="68" customHeight="1">
-      <c r="A62" t="s" s="7">
+    <row r="62" spans="1:4" ht="68.099999999999994" customHeight="1">
+      <c r="A62" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="B62" t="s" s="7">
+      <c r="B62" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="7">
+      <c r="C62" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="D62" t="s" s="7">
+      <c r="D62" s="4" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="63" ht="62.25" customHeight="1">
-      <c r="A63" t="s" s="7">
+    <row r="63" spans="1:4" ht="62.25" customHeight="1">
+      <c r="A63" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="B63" t="s" s="7">
+      <c r="B63" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="7">
+      <c r="C63" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="D63" t="s" s="7">
+      <c r="D63" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="64" ht="57.75" customHeight="1">
-      <c r="A64" t="s" s="7">
+    <row r="64" spans="1:4" ht="57.75" customHeight="1">
+      <c r="A64" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="B64" t="s" s="7">
+      <c r="B64" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="7">
+      <c r="C64" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D64" t="s" s="7">
+      <c r="D64" s="4" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="65" ht="41.1" customHeight="1">
-      <c r="A65" t="s" s="7">
+    <row r="65" spans="1:4" ht="41.1" customHeight="1">
+      <c r="A65" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="B65" t="s" s="7">
+      <c r="B65" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C65" t="s" s="7">
+      <c r="C65" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="D65" t="s" s="7">
+      <c r="D65" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="66" ht="41.1" customHeight="1">
-      <c r="A66" t="s" s="7">
+    <row r="66" spans="1:4" ht="41.1" customHeight="1">
+      <c r="A66" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="B66" t="s" s="7">
+      <c r="B66" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C66" t="s" s="7">
+      <c r="C66" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="D66" t="s" s="7">
+      <c r="D66" s="4" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="67" ht="29.1" customHeight="1">
-      <c r="A67" t="s" s="7">
+    <row r="67" spans="1:4" ht="29.1" customHeight="1">
+      <c r="A67" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="B67" t="s" s="7">
+      <c r="B67" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C67" t="s" s="7">
+      <c r="C67" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D67" t="s" s="7">
+      <c r="D67" s="4" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="68" ht="41.1" customHeight="1">
-      <c r="A68" t="s" s="7">
+    <row r="68" spans="1:4" ht="41.1" customHeight="1">
+      <c r="A68" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="B68" t="s" s="7">
+      <c r="B68" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C68" t="s" s="7">
+      <c r="C68" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="D68" t="s" s="7">
+      <c r="D68" s="4" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="69" ht="54" customHeight="1">
-      <c r="A69" t="s" s="7">
+    <row r="69" spans="1:4" ht="54" customHeight="1">
+      <c r="A69" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="B69" t="s" s="7">
+      <c r="B69" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C69" t="s" s="7">
+      <c r="C69" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D69" t="s" s="7">
+      <c r="D69" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="70" ht="41.1" customHeight="1">
-      <c r="A70" t="s" s="7">
+    <row r="70" spans="1:4" ht="41.1" customHeight="1">
+      <c r="A70" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="B70" t="s" s="7">
+      <c r="B70" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C70" t="s" s="7">
+      <c r="C70" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D70" t="s" s="7">
+      <c r="D70" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="71" ht="41.1" customHeight="1">
-      <c r="A71" t="s" s="7">
+    <row r="71" spans="1:4" ht="41.1" customHeight="1">
+      <c r="A71" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="B71" t="s" s="7">
+      <c r="B71" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C71" t="s" s="7">
+      <c r="C71" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D71" t="s" s="7">
+      <c r="D71" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="72" ht="51" customHeight="1">
-      <c r="A72" t="s" s="7">
+    <row r="72" spans="1:4" ht="51" customHeight="1">
+      <c r="A72" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B72" t="s" s="7">
+      <c r="B72" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C72" t="s" s="7">
+      <c r="C72" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D72" t="s" s="7">
+      <c r="D72" s="4" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="73" ht="64.5" customHeight="1">
-      <c r="A73" t="s" s="7">
+    <row r="73" spans="1:4" ht="51">
+      <c r="A73" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B73" t="s" s="7">
+      <c r="B73" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C73" t="s" s="7">
+      <c r="C73" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D73" t="s" s="7">
+      <c r="D73" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="74" ht="49.5" customHeight="1">
-      <c r="A74" t="s" s="7">
+    <row r="74" spans="1:4" ht="38.25">
+      <c r="A74" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="B74" t="s" s="7">
+      <c r="B74" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C74" t="s" s="7">
+      <c r="C74" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="D74" t="s" s="7">
+      <c r="D74" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="75" ht="49.5" customHeight="1">
-      <c r="A75" t="s" s="7">
+    <row r="75" spans="1:4" ht="38.25">
+      <c r="A75" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="B75" t="s" s="7">
+      <c r="B75" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C75" t="s" s="7">
+      <c r="C75" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D75" t="s" s="7">
+      <c r="D75" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="76" ht="49.5" customHeight="1">
-      <c r="A76" t="s" s="7">
+    <row r="76" spans="1:4" ht="38.25">
+      <c r="A76" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="B76" t="s" s="7">
+      <c r="B76" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C76" t="s" s="7">
+      <c r="C76" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D76" t="s" s="7">
+      <c r="D76" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="77" ht="66" customHeight="1">
-      <c r="A77" t="s" s="7">
+    <row r="77" spans="1:4" ht="38.25">
+      <c r="A77" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="B77" t="s" s="7">
+      <c r="B77" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C77" t="s" s="7">
+      <c r="C77" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D77" t="s" s="7">
+      <c r="D77" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="78" ht="49.9" customHeight="1">
-      <c r="A78" t="s" s="5">
+    <row r="78" spans="1:4" ht="38.25">
+      <c r="A78" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="B78" t="s" s="5">
+      <c r="B78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="5">
+      <c r="C78" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D78" t="s" s="5">
+      <c r="D78" s="2" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="79" ht="63.75" customHeight="1">
-      <c r="A79" t="s" s="7">
+    <row r="79" spans="1:4" ht="38.25">
+      <c r="A79" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="B79" t="s" s="7">
+      <c r="B79" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C79" t="s" s="7">
+      <c r="C79" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="D79" t="s" s="7">
+      <c r="D79" s="4" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="80" ht="53.1" customHeight="1">
-      <c r="A80" t="s" s="7">
+    <row r="80" spans="1:4" ht="38.25">
+      <c r="A80" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B80" t="s" s="7">
+      <c r="B80" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C80" t="s" s="7">
+      <c r="C80" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D80" t="s" s="7">
+      <c r="D80" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="81" ht="53.1" customHeight="1">
-      <c r="A81" t="s" s="7">
+    <row r="81" spans="1:4" ht="38.25">
+      <c r="A81" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B81" t="s" s="7">
+      <c r="B81" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C81" t="s" s="7">
+      <c r="C81" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="D81" t="s" s="7">
+      <c r="D81" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="82" ht="41.1" customHeight="1">
-      <c r="A82" t="s" s="7">
+    <row r="82" spans="1:4" ht="25.5">
+      <c r="A82" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="B82" t="s" s="7">
+      <c r="B82" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C82" t="s" s="7">
+      <c r="C82" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="D82" t="s" s="7">
+      <c r="D82" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="83" ht="41.1" customHeight="1">
-      <c r="A83" t="s" s="7">
+    <row r="83" spans="1:4" ht="25.5">
+      <c r="A83" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="B83" t="s" s="7">
+      <c r="B83" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C83" t="s" s="7">
+      <c r="C83" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="D83" t="s" s="7">
+      <c r="D83" s="4" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="84" ht="37.65" customHeight="1">
-      <c r="A84" t="s" s="7">
+    <row r="84" spans="1:4" ht="38.25">
+      <c r="A84" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B84" t="s" s="7">
+      <c r="B84" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C84" t="s" s="7">
+      <c r="C84" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="D84" t="s" s="7">
+      <c r="D84" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="85" ht="56.25" customHeight="1">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-    </row>
-    <row r="86" ht="70.5" customHeight="1">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-    </row>
-    <row r="87" ht="41.1" customHeight="1">
-      <c r="A87" s="8"/>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-    </row>
-    <row r="88" ht="53.1" customHeight="1">
-      <c r="A88" s="8"/>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-    </row>
-    <row r="89" ht="41.1" customHeight="1">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-    </row>
-    <row r="90" ht="53.1" customHeight="1">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-    </row>
-    <row r="91" ht="65.1" customHeight="1">
-      <c r="A91" s="8"/>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-    </row>
-    <row r="92" ht="41.1" customHeight="1">
-      <c r="A92" s="9"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="11"/>
+    <row r="85" spans="1:4" ht="25.5">
+      <c r="A85" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="38.25">
+      <c r="A86" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="25.5">
+      <c r="A87" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="B87" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="25.5">
+      <c r="A88" s="14" t="s">
+        <v>267</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="25.5">
+      <c r="A89" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="38.25">
+      <c r="A90" s="14" t="s">
+        <v>270</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="38.25">
+      <c r="A91" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="38.25">
+      <c r="A92" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="38.25">
+      <c r="A93" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="38.25">
+      <c r="A94" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="51">
+      <c r="A95" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="38.25">
+      <c r="A96" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="51">
+      <c r="A97" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="25.5">
+      <c r="A98" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B98" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="25.5">
+      <c r="A99" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="25.5">
+      <c r="A100" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>305</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="38.25">
+      <c r="A101" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="38.25">
+      <c r="A102" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="38.25">
+      <c r="A103" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="38.25">
+      <c r="A104" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="25.5">
+      <c r="A105" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="51">
+      <c r="A106" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="B106" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="D106" s="13" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="38.25">
+      <c r="A107" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="B107" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="25.5">
+      <c r="A108" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="B108" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="18" customHeight="1">
+      <c r="A109" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="B109" s="15"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="15"/>
+    </row>
+    <row r="110" spans="1:4" ht="27.75" customHeight="1">
+      <c r="A110" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B110" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D110" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A111" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D111" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A112" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>335</v>
+      </c>
+      <c r="D112" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="36" customHeight="1">
+      <c r="A113" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B113" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D113" s="13" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A114" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>340</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>337</v>
+      </c>
+      <c r="D114" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="42" customHeight="1">
+      <c r="A115" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>349</v>
+      </c>
+      <c r="D115" s="18" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="18" customHeight="1">
+      <c r="A116" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="B116" s="19"/>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19"/>
+      <c r="E116" s="23"/>
+    </row>
+    <row r="117" spans="1:5" ht="55.5" customHeight="1">
+      <c r="A117" s="18" t="s">
+        <v>351</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>352</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>353</v>
+      </c>
+      <c r="D117" s="18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="18" customHeight="1">
+      <c r="A118" s="24"/>
+      <c r="B118" s="25"/>
+      <c r="C118" s="25"/>
+      <c r="D118" s="26"/>
+    </row>
+    <row r="119" spans="1:5" ht="18" customHeight="1">
+      <c r="A119" s="17"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+    </row>
+    <row r="120" spans="1:5" ht="18" customHeight="1">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+    </row>
+    <row r="121" spans="1:5" ht="18" customHeight="1">
+      <c r="A121" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+    </row>
+    <row r="122" spans="1:5" ht="18" customHeight="1">
+      <c r="A122" s="17"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+    </row>
+    <row r="123" spans="1:5" ht="18" customHeight="1">
+      <c r="A123" s="17"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+    </row>
+    <row r="124" spans="1:5" ht="18" customHeight="1">
+      <c r="A124" s="17"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="22"/>
+    </row>
+    <row r="125" spans="1:5" ht="18" customHeight="1">
+      <c r="A125" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="B125" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="C125" s="17" t="s">
+        <v>349</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A109:D109"/>
+    <mergeCell ref="A116:D116"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/RR/Esterni/Analisi dei Requisiti/Requisiti/Specifica/specifica.xlsx
+++ b/RR/Esterni/Analisi dei Requisiti/Requisiti/Specifica/specifica.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="353">
   <si>
     <t>Specifica Requisiti</t>
   </si>
@@ -1040,9 +1040,6 @@
     <t>Qualità</t>
   </si>
   <si>
-    <t>Obbligatorio</t>
-  </si>
-  <si>
     <t>Sarà fornita una documentazione esaustiva delle funzionalità dell'applicazione</t>
   </si>
   <si>
@@ -1089,9 +1086,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>QOB-5</t>
   </si>
   <si>
     <t>Il sistema dovrà essere funzionante su dispositivi Desktop ma anche su dispositivi mobile aventi sistema operativi Android,IOS,Windows Phone</t>
@@ -1303,15 +1297,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1330,21 +1315,9 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1359,6 +1332,27 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2717,13 +2711,13 @@
   </sheetPr>
   <dimension ref="A1:IV125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="D118" sqref="D118"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11" style="12" customWidth="1"/>
+    <col min="1" max="1" width="11" style="9" customWidth="1"/>
     <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
     <col min="3" max="3" width="22.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.09765625" style="1" customWidth="1"/>
@@ -2731,15 +2725,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.95" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="20.65" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2753,7 +2747,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="86.85" customHeight="1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -2767,7 +2761,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="86.85" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -2781,7 +2775,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="86.85" customHeight="1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2795,7 +2789,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2809,7 +2803,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2823,7 +2817,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2837,7 +2831,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="72.400000000000006" customHeight="1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2851,7 +2845,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2865,7 +2859,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2879,7 +2873,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="32.450000000000003" customHeight="1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -2893,7 +2887,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="32.450000000000003" customHeight="1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2907,7 +2901,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2921,7 +2915,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" ht="56.45" customHeight="1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -2935,7 +2929,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="32.450000000000003" customHeight="1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2949,7 +2943,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -2963,7 +2957,7 @@
       </c>
     </row>
     <row r="18" spans="1:4" ht="56.45" customHeight="1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -2977,7 +2971,7 @@
       </c>
     </row>
     <row r="19" spans="1:4" ht="56.45" customHeight="1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -2991,7 +2985,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3005,7 +2999,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" ht="32.450000000000003" customHeight="1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3019,7 +3013,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="32.450000000000003" customHeight="1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3033,7 +3027,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -3047,7 +3041,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
         <v>74</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -3061,7 +3055,7 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3075,7 +3069,7 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3089,7 +3083,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3103,7 +3097,7 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="68.45" customHeight="1">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>85</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3117,7 +3111,7 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="68.45" customHeight="1">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>88</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3131,7 +3125,7 @@
       </c>
     </row>
     <row r="30" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="6" t="s">
         <v>91</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3145,7 +3139,7 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="56.45" customHeight="1">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>94</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3159,7 +3153,7 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3173,7 +3167,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3187,7 +3181,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B34" s="2" t="s">
@@ -3201,7 +3195,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3215,7 +3209,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="6" t="s">
         <v>109</v>
       </c>
       <c r="B36" s="2" t="s">
@@ -3229,7 +3223,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -3243,7 +3237,7 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="6" t="s">
         <v>115</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -3257,7 +3251,7 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B39" s="2" t="s">
@@ -3271,7 +3265,7 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="56.45" customHeight="1">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="6" t="s">
         <v>122</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3285,7 +3279,7 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="6" t="s">
         <v>126</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3299,7 +3293,7 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3313,7 +3307,7 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="6" t="s">
         <v>132</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -3327,7 +3321,7 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="6" t="s">
         <v>135</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -3341,7 +3335,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="6" t="s">
         <v>138</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3355,7 +3349,7 @@
       </c>
     </row>
     <row r="46" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -3369,7 +3363,7 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="67.150000000000006" customHeight="1">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3383,7 +3377,7 @@
       </c>
     </row>
     <row r="48" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="6" t="s">
         <v>147</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -3397,7 +3391,7 @@
       </c>
     </row>
     <row r="49" spans="1:4" ht="53.1" customHeight="1">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="6" t="s">
         <v>150</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -3411,7 +3405,7 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="53.1" customHeight="1">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -3425,7 +3419,7 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="53.1" customHeight="1">
-      <c r="A51" s="9" t="s">
+      <c r="A51" s="6" t="s">
         <v>156</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -3439,7 +3433,7 @@
       </c>
     </row>
     <row r="52" spans="1:4" ht="53.1" customHeight="1">
-      <c r="A52" s="9" t="s">
+      <c r="A52" s="6" t="s">
         <v>159</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -3453,7 +3447,7 @@
       </c>
     </row>
     <row r="53" spans="1:4" ht="42.6" customHeight="1">
-      <c r="A53" s="9" t="s">
+      <c r="A53" s="6" t="s">
         <v>162</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -3467,7 +3461,7 @@
       </c>
     </row>
     <row r="54" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A54" s="9" t="s">
+      <c r="A54" s="6" t="s">
         <v>165</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -3481,7 +3475,7 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="6" t="s">
         <v>169</v>
       </c>
       <c r="B55" s="2" t="s">
@@ -3495,7 +3489,7 @@
       </c>
     </row>
     <row r="56" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A56" s="9" t="s">
+      <c r="A56" s="6" t="s">
         <v>172</v>
       </c>
       <c r="B56" s="2" t="s">
@@ -3509,7 +3503,7 @@
       </c>
     </row>
     <row r="57" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A57" s="9" t="s">
+      <c r="A57" s="6" t="s">
         <v>175</v>
       </c>
       <c r="B57" s="2" t="s">
@@ -3523,7 +3517,7 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A58" s="9" t="s">
+      <c r="A58" s="6" t="s">
         <v>178</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -3537,7 +3531,7 @@
       </c>
     </row>
     <row r="59" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A59" s="10" t="s">
+      <c r="A59" s="7" t="s">
         <v>181</v>
       </c>
       <c r="B59" s="3" t="s">
@@ -3551,7 +3545,7 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="55.5" customHeight="1">
-      <c r="A60" s="11" t="s">
+      <c r="A60" s="8" t="s">
         <v>184</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -3565,7 +3559,7 @@
       </c>
     </row>
     <row r="61" spans="1:4" ht="62.25" customHeight="1">
-      <c r="A61" s="11" t="s">
+      <c r="A61" s="8" t="s">
         <v>187</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -3579,7 +3573,7 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="68.099999999999994" customHeight="1">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="8" t="s">
         <v>190</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -3593,7 +3587,7 @@
       </c>
     </row>
     <row r="63" spans="1:4" ht="62.25" customHeight="1">
-      <c r="A63" s="11" t="s">
+      <c r="A63" s="8" t="s">
         <v>193</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -3607,7 +3601,7 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="57.75" customHeight="1">
-      <c r="A64" s="11" t="s">
+      <c r="A64" s="8" t="s">
         <v>196</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -3621,7 +3615,7 @@
       </c>
     </row>
     <row r="65" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A65" s="11" t="s">
+      <c r="A65" s="8" t="s">
         <v>199</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -3635,7 +3629,7 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A66" s="11" t="s">
+      <c r="A66" s="8" t="s">
         <v>203</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -3649,7 +3643,7 @@
       </c>
     </row>
     <row r="67" spans="1:4" ht="29.1" customHeight="1">
-      <c r="A67" s="11" t="s">
+      <c r="A67" s="8" t="s">
         <v>206</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -3663,7 +3657,7 @@
       </c>
     </row>
     <row r="68" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A68" s="11" t="s">
+      <c r="A68" s="8" t="s">
         <v>209</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -3677,7 +3671,7 @@
       </c>
     </row>
     <row r="69" spans="1:4" ht="54" customHeight="1">
-      <c r="A69" s="11" t="s">
+      <c r="A69" s="8" t="s">
         <v>212</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -3691,7 +3685,7 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A70" s="11" t="s">
+      <c r="A70" s="8" t="s">
         <v>215</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -3705,7 +3699,7 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A71" s="11" t="s">
+      <c r="A71" s="8" t="s">
         <v>218</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -3719,7 +3713,7 @@
       </c>
     </row>
     <row r="72" spans="1:4" ht="51" customHeight="1">
-      <c r="A72" s="11" t="s">
+      <c r="A72" s="8" t="s">
         <v>221</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -3733,7 +3727,7 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="51">
-      <c r="A73" s="11" t="s">
+      <c r="A73" s="8" t="s">
         <v>224</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -3747,7 +3741,7 @@
       </c>
     </row>
     <row r="74" spans="1:4" ht="38.25">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="8" t="s">
         <v>227</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -3761,7 +3755,7 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="38.25">
-      <c r="A75" s="11" t="s">
+      <c r="A75" s="8" t="s">
         <v>230</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -3775,7 +3769,7 @@
       </c>
     </row>
     <row r="76" spans="1:4" ht="38.25">
-      <c r="A76" s="11" t="s">
+      <c r="A76" s="8" t="s">
         <v>233</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -3789,7 +3783,7 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="38.25">
-      <c r="A77" s="11" t="s">
+      <c r="A77" s="8" t="s">
         <v>236</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -3803,7 +3797,7 @@
       </c>
     </row>
     <row r="78" spans="1:4" ht="38.25">
-      <c r="A78" s="9" t="s">
+      <c r="A78" s="6" t="s">
         <v>239</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -3817,7 +3811,7 @@
       </c>
     </row>
     <row r="79" spans="1:4" ht="38.25">
-      <c r="A79" s="11" t="s">
+      <c r="A79" s="8" t="s">
         <v>242</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -3831,7 +3825,7 @@
       </c>
     </row>
     <row r="80" spans="1:4" ht="38.25">
-      <c r="A80" s="11" t="s">
+      <c r="A80" s="8" t="s">
         <v>245</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -3845,7 +3839,7 @@
       </c>
     </row>
     <row r="81" spans="1:4" ht="38.25">
-      <c r="A81" s="11" t="s">
+      <c r="A81" s="8" t="s">
         <v>248</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -3859,7 +3853,7 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="25.5">
-      <c r="A82" s="11" t="s">
+      <c r="A82" s="8" t="s">
         <v>250</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -3873,7 +3867,7 @@
       </c>
     </row>
     <row r="83" spans="1:4" ht="25.5">
-      <c r="A83" s="11" t="s">
+      <c r="A83" s="8" t="s">
         <v>253</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -3887,7 +3881,7 @@
       </c>
     </row>
     <row r="84" spans="1:4" ht="38.25">
-      <c r="A84" s="11" t="s">
+      <c r="A84" s="8" t="s">
         <v>256</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -3901,10 +3895,10 @@
       </c>
     </row>
     <row r="85" spans="1:4" ht="25.5">
-      <c r="A85" s="11" t="s">
+      <c r="A85" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="B85" s="13" t="s">
+      <c r="B85" s="10" t="s">
         <v>120</v>
       </c>
       <c r="C85" s="5" t="s">
@@ -3915,490 +3909,484 @@
       </c>
     </row>
     <row r="86" spans="1:4" ht="38.25">
-      <c r="A86" s="14" t="s">
+      <c r="A86" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="B86" s="13" t="s">
+      <c r="B86" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C86" s="13" t="s">
+      <c r="C86" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D86" s="10" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="25.5">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="10" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="25.5">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="B88" s="13" t="s">
+      <c r="B88" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C88" s="13" t="s">
+      <c r="C88" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="D88" s="13" t="s">
+      <c r="D88" s="10" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="25.5">
-      <c r="A89" s="14" t="s">
+      <c r="A89" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="B89" s="13" t="s">
+      <c r="B89" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C89" s="13" t="s">
+      <c r="C89" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="D89" s="13" t="s">
+      <c r="D89" s="10" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="38.25">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="B90" s="13" t="s">
+      <c r="B90" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C90" s="13" t="s">
+      <c r="C90" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="D90" s="13" t="s">
+      <c r="D90" s="10" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="38.25">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="10" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="38.25">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B92" s="13" t="s">
+      <c r="B92" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C92" s="13" t="s">
+      <c r="C92" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="D92" s="13" t="s">
+      <c r="D92" s="10" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="38.25">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B93" s="13" t="s">
+      <c r="B93" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C93" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D93" s="13" t="s">
+      <c r="D93" s="10" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="38.25">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="10" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="51">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="B95" s="13" t="s">
+      <c r="B95" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C95" s="13" t="s">
+      <c r="C95" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="D95" s="13" t="s">
+      <c r="D95" s="10" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="38.25">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B96" s="13" t="s">
+      <c r="B96" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C96" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D96" s="10" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="51">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="10" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="25.5">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B98" s="13" t="s">
+      <c r="B98" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C98" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="D98" s="13" t="s">
+      <c r="D98" s="10" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="25.5">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B99" s="13" t="s">
+      <c r="B99" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C99" s="10" t="s">
         <v>302</v>
       </c>
-      <c r="D99" s="13" t="s">
+      <c r="D99" s="10" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="25.5">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B100" s="13" t="s">
+      <c r="B100" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C100" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="D100" s="10" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="38.25">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="B101" s="13" t="s">
+      <c r="B101" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="D101" s="13" t="s">
+      <c r="D101" s="10" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="38.25">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="10" t="s">
         <v>308</v>
       </c>
-      <c r="B102" s="13" t="s">
+      <c r="B102" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C102" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="D102" s="13" t="s">
+      <c r="D102" s="10" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="38.25">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="B103" s="13" t="s">
+      <c r="B103" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C103" s="13" t="s">
+      <c r="C103" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="D103" s="13" t="s">
+      <c r="D103" s="10" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="38.25">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="D104" s="13" t="s">
+      <c r="D104" s="10" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="25.5">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="B105" s="13" t="s">
+      <c r="B105" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C105" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="D105" s="13" t="s">
+      <c r="D105" s="10" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="51">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B106" s="13" t="s">
+      <c r="B106" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C106" s="13" t="s">
+      <c r="C106" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="D106" s="13" t="s">
+      <c r="D106" s="10" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="38.25">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="D107" s="10" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="25.5">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="B108" s="13" t="s">
+      <c r="B108" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="C108" s="13" t="s">
+      <c r="C108" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="D108" s="13" t="s">
+      <c r="D108" s="10" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="18" customHeight="1">
-      <c r="A109" s="16" t="s">
+      <c r="A109" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
+      <c r="B109" s="24"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
     </row>
     <row r="110" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="D110" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="34.5" customHeight="1">
+      <c r="A111" s="10" t="s">
         <v>341</v>
       </c>
-      <c r="B110" s="13" t="s">
+      <c r="B111" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C111" s="10" t="s">
         <v>333</v>
       </c>
-      <c r="D110" s="13" t="s">
+      <c r="D111" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="24.75" customHeight="1">
+      <c r="A112" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="B112" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A111" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="C111" s="13" t="s">
+      <c r="C112" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D112" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="36" customHeight="1">
+      <c r="A113" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="B113" s="10" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="24.75" customHeight="1">
-      <c r="A112" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="B112" s="13" t="s">
+      <c r="C113" s="10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D113" s="10" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="36.75" customHeight="1">
+      <c r="A114" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="B114" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="C112" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="D112" s="13" t="s">
+      <c r="C114" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D114" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="42" customHeight="1">
+      <c r="A115" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="B115" s="13" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="36" customHeight="1">
-      <c r="A113" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B113" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="D113" s="13" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A114" s="18" t="s">
+      <c r="C115" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="18" customHeight="1">
+      <c r="A116" s="25" t="s">
         <v>345</v>
       </c>
-      <c r="B114" s="18" t="s">
-        <v>340</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>337</v>
-      </c>
-      <c r="D114" s="18" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="42" customHeight="1">
-      <c r="A115" s="18" t="s">
+      <c r="B116" s="26"/>
+      <c r="C116" s="26"/>
+      <c r="D116" s="26"/>
+      <c r="E116" s="16"/>
+    </row>
+    <row r="117" spans="1:5" ht="55.5" customHeight="1">
+      <c r="A117" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B117" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="B115" s="18" t="s">
-        <v>339</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>349</v>
-      </c>
-      <c r="D115" s="18" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="18" customHeight="1">
-      <c r="A116" s="20" t="s">
+      <c r="C117" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D117" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="18" customHeight="1">
+      <c r="A118" s="17"/>
+      <c r="B118" s="18"/>
+      <c r="C118" s="18"/>
+      <c r="D118" s="19"/>
+    </row>
+    <row r="119" spans="1:5" ht="18" customHeight="1">
+      <c r="A119" s="12"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="12"/>
+    </row>
+    <row r="120" spans="1:5" ht="18" customHeight="1">
+      <c r="A120" s="12"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="12"/>
+    </row>
+    <row r="121" spans="1:5" ht="18" customHeight="1">
+      <c r="A121" s="14" t="s">
         <v>346</v>
       </c>
-      <c r="B116" s="19"/>
-      <c r="C116" s="19"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="23"/>
-    </row>
-    <row r="117" spans="1:5" ht="55.5" customHeight="1">
-      <c r="A117" s="18" t="s">
-        <v>351</v>
-      </c>
-      <c r="B117" s="18" t="s">
-        <v>352</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>353</v>
-      </c>
-      <c r="D117" s="18" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="18" customHeight="1">
-      <c r="A118" s="24"/>
-      <c r="B118" s="25"/>
-      <c r="C118" s="25"/>
-      <c r="D118" s="26"/>
-    </row>
-    <row r="119" spans="1:5" ht="18" customHeight="1">
-      <c r="A119" s="17"/>
-      <c r="B119" s="17"/>
-      <c r="C119" s="17"/>
-    </row>
-    <row r="120" spans="1:5" ht="18" customHeight="1">
-      <c r="A120" s="17"/>
-      <c r="B120" s="17"/>
-      <c r="C120" s="17"/>
-    </row>
-    <row r="121" spans="1:5" ht="18" customHeight="1">
-      <c r="A121" s="21" t="s">
-        <v>347</v>
-      </c>
-      <c r="B121" s="17"/>
-      <c r="C121" s="17"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="12"/>
     </row>
     <row r="122" spans="1:5" ht="18" customHeight="1">
-      <c r="A122" s="17"/>
-      <c r="B122" s="17"/>
-      <c r="C122" s="17"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="12"/>
     </row>
     <row r="123" spans="1:5" ht="18" customHeight="1">
-      <c r="A123" s="17"/>
-      <c r="B123" s="17"/>
-      <c r="C123" s="17"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="12"/>
     </row>
     <row r="124" spans="1:5" ht="18" customHeight="1">
-      <c r="A124" s="17"/>
-      <c r="B124" s="17"/>
-      <c r="C124" s="22"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
+      <c r="C124" s="15"/>
     </row>
     <row r="125" spans="1:5" ht="18" customHeight="1">
-      <c r="A125" s="17" t="s">
-        <v>348</v>
-      </c>
-      <c r="B125" s="17" t="s">
-        <v>332</v>
-      </c>
-      <c r="C125" s="17" t="s">
-        <v>349</v>
-      </c>
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/RR/Esterni/Analisi dei Requisiti/Requisiti/Specifica/specifica.xlsx
+++ b/RR/Esterni/Analisi dei Requisiti/Requisiti/Specifica/specifica.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
-  </definedNames>
-  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
   <si>
     <t>Specifica Requisiti</t>
   </si>
@@ -415,6 +409,21 @@
     <t>UC1.3.1.9</t>
   </si>
   <si>
+    <t>- - &gt; RF7.1.37</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di annullare l’ultima modifica effettuata</t>
+  </si>
+  <si>
+    <t>UC1.3.1.11</t>
+  </si>
+  <si>
+    <t>- - &gt; RF7.1.40</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di ripristinare l’ultima modifica annullata</t>
+  </si>
+  <si>
     <t>- &gt; RF10</t>
   </si>
   <si>
@@ -815,7 +824,7 @@
     <t>-&gt;RF67.13</t>
   </si>
   <si>
-    <t>L'utente amministratore deve essere in grado di annullare il comando di eliminazione di un template</t>
+    <t>L'utente amministratore deve essere in grado di annullare l’ultima eliminazione di un template</t>
   </si>
   <si>
     <t>UC 1.9.5</t>
@@ -830,79 +839,70 @@
     <t>UC 1.17</t>
   </si>
   <si>
+    <t>-&gt;RF70.1</t>
+  </si>
+  <si>
     <t>L'utente deve essere in grado di selezionare una presentazione da cui produrre l'infografica</t>
   </si>
   <si>
     <t>UC 1.17.1</t>
   </si>
   <si>
-    <t>-&gt;RF70.1</t>
-  </si>
-  <si>
-    <t>-&gt;RF70.2</t>
+    <t>-&gt;RF70.4</t>
   </si>
   <si>
     <t>L'utente deve essere in grado di selezionare il template di infografica</t>
   </si>
   <si>
-    <t>-&gt;RF70.3</t>
-  </si>
-  <si>
-    <t>L'utente deve essere in grado di selezionare gli elementi del template</t>
-  </si>
-  <si>
-    <t>-&gt;RF70.4</t>
-  </si>
-  <si>
-    <t>--&gt;RF70.4.1</t>
+    <t>UC 1.17.2</t>
+  </si>
+  <si>
+    <t>-&gt;RF70.10</t>
   </si>
   <si>
     <t>L'utente deve essere in grado di modificare l'infografica</t>
   </si>
   <si>
+    <t>UC 1.17.4</t>
+  </si>
+  <si>
+    <t>--&gt;RF70.10.1</t>
+  </si>
+  <si>
     <t>L'utente deve essere in grado di modificare un elemento dell'infografica</t>
   </si>
   <si>
-    <t>---&gt;RF70.4.1.1</t>
-  </si>
-  <si>
-    <t>L'utente deve essere in grado di cambiare le dimensioni di un oggetto grafico dell'infografica</t>
-  </si>
-  <si>
-    <t>---&gt;RF70.4.1.2</t>
-  </si>
-  <si>
-    <t>L'utente deve essere in grado di apportare modifiche a un oggetto testuale dell'infografica</t>
-  </si>
-  <si>
-    <t>----&gt;RF70.4.1.2.1</t>
+    <t>UC 1.17.4.1</t>
+  </si>
+  <si>
+    <t>---&gt;RF70.10.1.1</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di cambiare le dimensioni di una immagine dell'infografica</t>
+  </si>
+  <si>
+    <t>UC 1.17.4.1.1</t>
+  </si>
+  <si>
+    <t>---&gt;RF70.10.1.4</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di apportare modifiche a un elemento testuale dell'infografica</t>
   </si>
   <si>
     <t>UC 1.17.4.1.2</t>
   </si>
   <si>
-    <t>UC 1.17.4.1.1</t>
-  </si>
-  <si>
-    <t>UC 1.17.4.1</t>
-  </si>
-  <si>
-    <t>UC 1.17.4</t>
-  </si>
-  <si>
-    <t>UC 1.17.3</t>
-  </si>
-  <si>
-    <t>UC 1.17.2</t>
+    <t>----&gt;RF70.10.1.4.1</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di modificare i caratteri (font) dell'elemento testuale</t>
   </si>
   <si>
     <t>UC 1.17.4.1.2.1</t>
   </si>
   <si>
-    <t>----&gt;RF70.4.1.2.2</t>
-  </si>
-  <si>
-    <t>L'utente deve essere in grado di modificare i caratteri (font) dell'elemento testuale</t>
+    <t>----&gt;RF70.10.1.4.4</t>
   </si>
   <si>
     <t>L'utente deve essere in grado di modificare la dimensione dei caratteri dell'elemento testuale</t>
@@ -911,16 +911,16 @@
     <t>UC 1.17.4.1.2.2</t>
   </si>
   <si>
-    <t>----&gt;RF70.4.1.2.3</t>
-  </si>
-  <si>
-    <t>L'utente deve essere in grado di cambiare la formattazione di un elemento testuale (corsivo, grassetto, sottolineato)</t>
+    <t>----&gt;RF70.10.1.4.7</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di cambiare lo stile di un elemento testuale (corsivo, grassetto, sottolineato)</t>
   </si>
   <si>
     <t>UC 1.17.4.1.2.3</t>
   </si>
   <si>
-    <t>----&gt;RF70.4.1.2.4</t>
+    <t>----&gt;RF70.10.1.4.10</t>
   </si>
   <si>
     <t>L'utente deve essere in grado di cambiare il colore della scritta dell'elemento testuale</t>
@@ -929,7 +929,7 @@
     <t>UC 1.17.4.1.2.4</t>
   </si>
   <si>
-    <t>----&gt;RF70.4.1.2.5</t>
+    <t>----&gt;RF70.10.1.4.13</t>
   </si>
   <si>
     <t>L'utente deve essere in grado di cambiare il colore dello sfondo della scritta dell'elemento testuale (evidenziazione)</t>
@@ -938,16 +938,16 @@
     <t>UC 1.17.4.1.2.5</t>
   </si>
   <si>
-    <t>---&gt;RF70.4.1.3</t>
-  </si>
-  <si>
-    <t>L'utente deve essere in grado di cambiare la posizione dell'oggetto</t>
+    <t>---&gt;RF70.10.1.7</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di cambiare la posizione dell'elemento</t>
   </si>
   <si>
     <t>UC 1.17.4.1.3</t>
   </si>
   <si>
-    <t>--&gt;RF70.4.2</t>
+    <t>--&gt;RF70.10.4</t>
   </si>
   <si>
     <t>L'utente deve essere in grado di rimuovere lo sfondo dell'infografica</t>
@@ -956,7 +956,7 @@
     <t>UC 1.17.4.2</t>
   </si>
   <si>
-    <t>--&gt;RF70.4.3</t>
+    <t>--&gt;RF70.10.7</t>
   </si>
   <si>
     <t>L'utente deve essere in grado di inserire uno sfondo nell'infografica</t>
@@ -965,43 +965,43 @@
     <t>UC 1.17.4.3</t>
   </si>
   <si>
-    <t>--&gt;RF70.4.4</t>
-  </si>
-  <si>
-    <t>--&gt;RF70.4.5</t>
-  </si>
-  <si>
-    <t>--&gt;RF70.4.6</t>
+    <t>--&gt;RF70.10.10</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di inserire una immagine nell'infografica</t>
   </si>
   <si>
     <t>UC 1.17.4.4</t>
   </si>
   <si>
+    <t>--&gt;RF70.10.13</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di inserire un elemento testuale nell'infografica</t>
+  </si>
+  <si>
     <t>UC 1.17.4.5</t>
   </si>
   <si>
+    <t>--&gt;RF70.10.16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L'utente deve essere in grado di inserire un frame che si trova nella presentazione </t>
+  </si>
+  <si>
     <t>UC 1.17.4.6</t>
   </si>
   <si>
-    <t>L'utente deve essere in grado di inserire un elemento grafico nell'infografica</t>
-  </si>
-  <si>
-    <t>L'utente deve essere in grado di inserire un elemento testuale nell'infografica</t>
-  </si>
-  <si>
-    <t>L'utente deve essere in grado di inserire un frame nella sua interezza all'interno dell'infografica</t>
-  </si>
-  <si>
-    <t>--&gt;RF70.4.7</t>
+    <t>--&gt;RF70.10.19</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di eliminare un elementi immagini o testuali all'interno dell'infografica</t>
   </si>
   <si>
     <t>UC 1.17.4.7</t>
   </si>
   <si>
-    <t>L'utente deve essere in grado di eliminare un elemento grafico o testuale all'interno dell'infografica</t>
-  </si>
-  <si>
-    <t>-&gt;RF70.5</t>
+    <t>-&gt;RF70.13</t>
   </si>
   <si>
     <t>L'utente deve essere in grado di salvare l'infografica nel suo spazio</t>
@@ -1010,24 +1010,24 @@
     <t>UC 1.17.5</t>
   </si>
   <si>
-    <t>-&gt;RF70.6</t>
-  </si>
-  <si>
-    <t>-&gt;RF70.7</t>
+    <t>-&gt;RF70.16</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di annullare una modifica appena effettuata all'infografica o di ripristinarla</t>
   </si>
   <si>
     <t>UC 1.17.6</t>
   </si>
   <si>
+    <t>-&gt;RF70.19</t>
+  </si>
+  <si>
+    <t>L'utente deve essere in grado di esportare un'infografica in formato stampabile</t>
+  </si>
+  <si>
     <t>UC 1.17.7</t>
   </si>
   <si>
-    <t>L'utente deve essere in grado di annullare una modifica appena effettuata all'infografica o di ripristinarla</t>
-  </si>
-  <si>
-    <t>L'utente deve essere in grado di esportare un'infografica in formato stampabile</t>
-  </si>
-  <si>
     <t>RF73</t>
   </si>
   <si>
@@ -1040,58 +1040,58 @@
     <t>Qualità</t>
   </si>
   <si>
-    <t>Sarà fornita una documentazione esaustiva delle funzionalità dell'applicazione</t>
-  </si>
-  <si>
-    <t>Sarà fornito un tutorial interattivo per la creazione delle presentazioni</t>
-  </si>
-  <si>
-    <t>Sarà fornita un documentazione esaustiva riguardo l'utilizzo del sistema da parte dell'amministratore</t>
-  </si>
-  <si>
-    <t>Il sistema deve essere accompagnato dalla documentazione sui test eseguiti</t>
-  </si>
-  <si>
-    <t>Il sistema dovrà essere utilizzabile anche in assenza di rete</t>
-  </si>
-  <si>
-    <t>Interna</t>
+    <t>RQ1</t>
   </si>
   <si>
     <t>Qualità
 Obbligatorio</t>
   </si>
   <si>
+    <t>Sarà fornita una documentazione esaustiva delle funzionalità dell'applicazione</t>
+  </si>
+  <si>
+    <t>Interna</t>
+  </si>
+  <si>
+    <t>RQ4</t>
+  </si>
+  <si>
+    <t>Qualità
+Opzionale</t>
+  </si>
+  <si>
+    <t>Sarà fornito un tutorial interattivo per la creazione delle presentazioni</t>
+  </si>
+  <si>
+    <t>RQ7</t>
+  </si>
+  <si>
+    <t>Sarà fornita un documentazione esaustiva riguardo l'utilizzo del sistema da parte dell'amministratore</t>
+  </si>
+  <si>
+    <t>RQ10</t>
+  </si>
+  <si>
+    <t>Il sistema deve essere accompagnato dalla documentazione sui test eseguiti</t>
+  </si>
+  <si>
+    <t>RQ13</t>
+  </si>
+  <si>
     <t>Qualità
 Desiderabile</t>
   </si>
   <si>
-    <t>RQ1</t>
-  </si>
-  <si>
-    <t>RQ4</t>
-  </si>
-  <si>
-    <t>RQ7</t>
-  </si>
-  <si>
-    <t>RQ10</t>
-  </si>
-  <si>
-    <t>RQ13</t>
+    <t>Il sistema dovrà offrire la possibilità di eseguire offline presentazioni precedentemente salvate</t>
+  </si>
+  <si>
+    <t>RQ16</t>
+  </si>
+  <si>
+    <t>Il sistema dovrà essere funzionante su dispositivi Desktop ma anche su dispositivi mobile aventi sistema operativi Android,IOS,Windows Phone</t>
   </si>
   <si>
     <t>Vincoli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-</t>
-  </si>
-  <si>
-    <t>Il sistema dovrà essere funzionante su dispositivi Desktop ma anche su dispositivi mobile aventi sistema operativi Android,IOS,Windows Phone</t>
-  </si>
-  <si>
-    <t>RQ5</t>
   </si>
   <si>
     <t>RV1</t>
@@ -1101,7 +1101,7 @@
 Desiderabile</t>
   </si>
   <si>
-    <t>Il sistema deve essere seguire le linee guida del material design fornite dalla google</t>
+    <t>Il sistema deve seguire le linee guida del material design fornite dalla google</t>
   </si>
   <si>
     <t>Proponente</t>
@@ -1110,8 +1110,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1128,6 +1131,11 @@
       <name val="Verdana"/>
     </font>
     <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
@@ -1137,37 +1145,8 @@
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="F"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Liberation Serif"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1180,8 +1159,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1242,230 +1227,107 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffe061"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1657,7 +1519,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1666,7 +1528,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1675,7 +1537,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1684,7 +1546,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1693,7 +1555,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1702,7 +1564,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1814,8 +1676,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-          <a:srcRect/>
+          <a:blip r:embed="rId1"/>
+          <a:srcRect l="0" t="0" r="0" b="0"/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1823,14 +1685,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
+          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1849,7 +1711,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1857,7 +1719,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
+              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1885,7 +1747,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1911,7 +1773,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1937,7 +1799,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1963,7 +1825,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1989,7 +1851,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2015,7 +1877,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2041,7 +1903,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2067,7 +1929,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2093,7 +1955,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2106,15 +1968,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2130,7 +1986,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2149,7 +2005,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2175,7 +2031,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2201,7 +2057,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2227,7 +2083,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2253,7 +2109,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2279,7 +2135,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2305,7 +2161,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2331,7 +2187,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2357,7 +2213,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2383,7 +2239,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2396,15 +2252,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2417,7 +2267,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2436,7 +2286,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2466,7 +2316,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2492,7 +2342,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2518,7 +2368,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2544,7 +2394,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2570,7 +2420,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2596,7 +2446,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2622,7 +2472,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2648,7 +2498,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2674,7 +2524,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2687,1729 +2537,1684 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV125"/>
+  <dimension ref="A1:D119"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.09765625" style="1" customWidth="1"/>
-    <col min="5" max="256" width="8.59765625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.0938" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
+    <col min="5" max="256" width="8.625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.95" customHeight="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="18.95" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" ht="20.65" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" ht="20.65" customHeight="1">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="86.85" customHeight="1">
-      <c r="A3" s="6" t="s">
+    <row r="3" ht="86.85" customHeight="1">
+      <c r="A3" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s" s="5">
         <v>7</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s" s="5">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="86.85" customHeight="1">
-      <c r="A4" s="6" t="s">
+    <row r="4" ht="86.85" customHeight="1">
+      <c r="A4" t="s" s="5">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s" s="5">
         <v>11</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s" s="5">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="86.85" customHeight="1">
-      <c r="A5" s="6" t="s">
+    <row r="5" ht="86.85" customHeight="1">
+      <c r="A5" t="s" s="5">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s" s="5">
         <v>14</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s" s="5">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A6" s="6" t="s">
+    <row r="6" ht="44.45" customHeight="1">
+      <c r="A6" t="s" s="5">
         <v>16</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s" s="5">
         <v>17</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" ht="44.45" customHeight="1">
+      <c r="A7" t="s" s="5">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s" s="5">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s" s="5">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A8" s="6" t="s">
+    <row r="8" ht="44.45" customHeight="1">
+      <c r="A8" t="s" s="5">
         <v>22</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s" s="5">
         <v>23</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s" s="5">
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="72.400000000000006" customHeight="1">
-      <c r="A9" s="6" t="s">
+    <row r="9" ht="72.4" customHeight="1">
+      <c r="A9" t="s" s="5">
         <v>25</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s" s="5">
         <v>26</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s" s="5">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A10" s="6" t="s">
+    <row r="10" ht="44.45" customHeight="1">
+      <c r="A10" t="s" s="5">
         <v>28</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s" s="5">
         <v>30</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s" s="5">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A11" s="6" t="s">
+    <row r="11" ht="44.45" customHeight="1">
+      <c r="A11" t="s" s="5">
         <v>32</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s" s="5">
         <v>33</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s" s="5">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="32.450000000000003" customHeight="1">
-      <c r="A12" s="6" t="s">
+    <row r="12" ht="32.45" customHeight="1">
+      <c r="A12" t="s" s="5">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s" s="5">
         <v>36</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s" s="5">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="32.450000000000003" customHeight="1">
-      <c r="A13" s="6" t="s">
+    <row r="13" ht="32.45" customHeight="1">
+      <c r="A13" t="s" s="5">
         <v>38</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s" s="5">
         <v>40</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" t="s" s="5">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A14" s="6" t="s">
+    <row r="14" ht="44.45" customHeight="1">
+      <c r="A14" t="s" s="5">
         <v>42</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s" s="5">
         <v>43</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s" s="5">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="56.45" customHeight="1">
-      <c r="A15" s="6" t="s">
+    <row r="15" ht="56.45" customHeight="1">
+      <c r="A15" t="s" s="5">
         <v>45</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s" s="5">
         <v>46</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" t="s" s="5">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="32.450000000000003" customHeight="1">
-      <c r="A16" s="6" t="s">
+    <row r="16" ht="32.45" customHeight="1">
+      <c r="A16" t="s" s="5">
         <v>48</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s" s="5">
         <v>49</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s" s="5">
         <v>50</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" t="s" s="5">
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A17" s="6" t="s">
+    <row r="17" ht="44.45" customHeight="1">
+      <c r="A17" t="s" s="5">
         <v>52</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s" s="5">
         <v>54</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s" s="5">
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="56.45" customHeight="1">
-      <c r="A18" s="6" t="s">
+    <row r="18" ht="56.45" customHeight="1">
+      <c r="A18" t="s" s="5">
         <v>56</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s" s="5">
         <v>57</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s" s="5">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="56.45" customHeight="1">
-      <c r="A19" s="6" t="s">
+    <row r="19" ht="56.45" customHeight="1">
+      <c r="A19" t="s" s="5">
         <v>59</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s" s="5">
         <v>60</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" t="s" s="5">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A20" s="6" t="s">
+    <row r="20" ht="44.45" customHeight="1">
+      <c r="A20" t="s" s="5">
         <v>62</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s" s="5">
         <v>63</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s" s="5">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="32.450000000000003" customHeight="1">
-      <c r="A21" s="6" t="s">
+    <row r="21" ht="32.45" customHeight="1">
+      <c r="A21" t="s" s="5">
         <v>65</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s" s="5">
         <v>66</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" t="s" s="5">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="32.450000000000003" customHeight="1">
-      <c r="A22" s="6" t="s">
+    <row r="22" ht="32.45" customHeight="1">
+      <c r="A22" t="s" s="5">
         <v>68</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s" s="5">
         <v>69</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" t="s" s="5">
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A23" s="6" t="s">
+    <row r="23" ht="44.45" customHeight="1">
+      <c r="A23" t="s" s="5">
         <v>71</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s" s="5">
         <v>72</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s" s="5">
         <v>73</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A24" s="6" t="s">
+    <row r="24" ht="44.45" customHeight="1">
+      <c r="A24" t="s" s="5">
         <v>74</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s" s="5">
         <v>53</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s" s="5">
         <v>75</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s" s="5">
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A25" s="6" t="s">
+    <row r="25" ht="44.45" customHeight="1">
+      <c r="A25" t="s" s="5">
         <v>77</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s" s="5">
         <v>78</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" t="s" s="5">
         <v>79</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A26" s="6" t="s">
+    <row r="26" ht="44.45" customHeight="1">
+      <c r="A26" t="s" s="5">
         <v>80</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s" s="5">
         <v>81</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" t="s" s="5">
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A27" s="6" t="s">
+    <row r="27" ht="44.45" customHeight="1">
+      <c r="A27" t="s" s="5">
         <v>82</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s" s="5">
         <v>83</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" t="s" s="5">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="68.45" customHeight="1">
-      <c r="A28" s="6" t="s">
+    <row r="28" ht="68.45" customHeight="1">
+      <c r="A28" t="s" s="5">
         <v>85</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s" s="5">
         <v>86</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" t="s" s="5">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="68.45" customHeight="1">
-      <c r="A29" s="6" t="s">
+    <row r="29" ht="68.45" customHeight="1">
+      <c r="A29" t="s" s="5">
         <v>88</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s" s="5">
         <v>89</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" t="s" s="5">
         <v>90</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A30" s="6" t="s">
+    <row r="30" ht="44.45" customHeight="1">
+      <c r="A30" t="s" s="5">
         <v>91</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s" s="5">
         <v>92</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" t="s" s="5">
         <v>93</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="56.45" customHeight="1">
-      <c r="A31" s="6" t="s">
+    <row r="31" ht="56.45" customHeight="1">
+      <c r="A31" t="s" s="5">
         <v>94</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s" s="5">
         <v>95</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" t="s" s="5">
         <v>96</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A32" s="6" t="s">
+    <row r="32" ht="44.45" customHeight="1">
+      <c r="A32" t="s" s="5">
         <v>97</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s" s="5">
         <v>98</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" t="s" s="5">
         <v>99</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A33" s="6" t="s">
+    <row r="33" ht="44.45" customHeight="1">
+      <c r="A33" t="s" s="5">
         <v>100</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s" s="5">
         <v>101</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" t="s" s="5">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A34" s="6" t="s">
+    <row r="34" ht="44.45" customHeight="1">
+      <c r="A34" t="s" s="5">
         <v>103</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s" s="5">
         <v>104</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" t="s" s="5">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A35" s="6" t="s">
+    <row r="35" ht="44.45" customHeight="1">
+      <c r="A35" t="s" s="5">
         <v>106</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s" s="5">
         <v>107</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" t="s" s="5">
         <v>108</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A36" s="6" t="s">
+    <row r="36" ht="44.45" customHeight="1">
+      <c r="A36" t="s" s="5">
         <v>109</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s" s="5">
         <v>110</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" t="s" s="5">
         <v>111</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A37" s="6" t="s">
+    <row r="37" ht="44.45" customHeight="1">
+      <c r="A37" t="s" s="5">
         <v>112</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s" s="5">
         <v>113</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" t="s" s="5">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A38" s="6" t="s">
+    <row r="38" ht="44.45" customHeight="1">
+      <c r="A38" t="s" s="5">
         <v>115</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s" s="5">
         <v>116</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s" s="5">
         <v>117</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" t="s" s="5">
         <v>118</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A39" s="6" t="s">
+    <row r="39" ht="44.45" customHeight="1">
+      <c r="A39" t="s" s="5">
         <v>119</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s" s="5">
         <v>120</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s" s="5">
         <v>121</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" t="s" s="5">
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="56.45" customHeight="1">
-      <c r="A40" s="6" t="s">
+    <row r="40" ht="56.45" customHeight="1">
+      <c r="A40" t="s" s="5">
         <v>122</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s" s="5">
         <v>123</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s" s="5">
         <v>124</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" t="s" s="5">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A41" s="6" t="s">
+    <row r="41" ht="44.45" customHeight="1">
+      <c r="A41" t="s" s="6">
         <v>126</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s" s="6">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s" s="6">
+        <v>127</v>
+      </c>
+      <c r="D41" t="s" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" ht="44.45" customHeight="1">
+      <c r="A42" t="s" s="6">
+        <v>129</v>
+      </c>
+      <c r="B42" t="s" s="6">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s" s="6">
+        <v>130</v>
+      </c>
+      <c r="D42" t="s" s="6">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" ht="44.45" customHeight="1">
+      <c r="A43" t="s" s="5">
+        <v>131</v>
+      </c>
+      <c r="B43" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A42" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="C43" t="s" s="5">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s" s="5">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" ht="44.45" customHeight="1">
+      <c r="A44" t="s" s="5">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A43" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="C44" t="s" s="5">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s" s="5">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" ht="44.45" customHeight="1">
+      <c r="A45" t="s" s="5">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A44" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="C45" t="s" s="5">
+        <v>138</v>
+      </c>
+      <c r="D45" t="s" s="5">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" ht="44.45" customHeight="1">
+      <c r="A46" t="s" s="5">
+        <v>140</v>
+      </c>
+      <c r="B46" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A45" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="C46" t="s" s="5">
+        <v>141</v>
+      </c>
+      <c r="D46" t="s" s="5">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="47" ht="44.45" customHeight="1">
+      <c r="A47" t="s" s="5">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="44.45" customHeight="1">
-      <c r="A46" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="C47" t="s" s="5">
+        <v>144</v>
+      </c>
+      <c r="D47" t="s" s="5">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" ht="44.45" customHeight="1">
+      <c r="A48" t="s" s="5">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="67.150000000000006" customHeight="1">
-      <c r="A47" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="C48" t="s" s="5">
+        <v>147</v>
+      </c>
+      <c r="D48" t="s" s="5">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" ht="67.15" customHeight="1">
+      <c r="A49" t="s" s="5">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="65.099999999999994" customHeight="1">
-      <c r="A48" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="C49" t="s" s="5">
+        <v>150</v>
+      </c>
+      <c r="D49" t="s" s="5">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" ht="65.1" customHeight="1">
+      <c r="A50" t="s" s="5">
+        <v>152</v>
+      </c>
+      <c r="B50" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="53.1" customHeight="1">
-      <c r="A49" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="C50" t="s" s="5">
+        <v>153</v>
+      </c>
+      <c r="D50" t="s" s="5">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" ht="53.1" customHeight="1">
+      <c r="A51" t="s" s="5">
+        <v>155</v>
+      </c>
+      <c r="B51" t="s" s="5">
         <v>116</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="53.1" customHeight="1">
-      <c r="A50" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="C51" t="s" s="5">
+        <v>156</v>
+      </c>
+      <c r="D51" t="s" s="5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" ht="53.1" customHeight="1">
+      <c r="A52" t="s" s="5">
+        <v>158</v>
+      </c>
+      <c r="B52" t="s" s="5">
         <v>116</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="53.1" customHeight="1">
-      <c r="A51" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="C52" t="s" s="5">
+        <v>159</v>
+      </c>
+      <c r="D52" t="s" s="5">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="53" ht="53.1" customHeight="1">
+      <c r="A53" t="s" s="5">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="53.1" customHeight="1">
-      <c r="A52" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="C53" t="s" s="5">
+        <v>162</v>
+      </c>
+      <c r="D53" t="s" s="5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" ht="53.1" customHeight="1">
+      <c r="A54" t="s" s="5">
+        <v>164</v>
+      </c>
+      <c r="B54" t="s" s="5">
         <v>49</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="42.6" customHeight="1">
-      <c r="A53" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="C54" t="s" s="5">
+        <v>165</v>
+      </c>
+      <c r="D54" t="s" s="5">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" ht="42.6" customHeight="1">
+      <c r="A55" t="s" s="5">
+        <v>167</v>
+      </c>
+      <c r="B55" t="s" s="5">
         <v>39</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A54" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D54" s="2" t="s">
+      <c r="C55" t="s" s="5">
         <v>168</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A55" s="6" t="s">
+      <c r="D55" t="s" s="5">
         <v>169</v>
       </c>
-      <c r="B55" s="2" t="s">
+    </row>
+    <row r="56" ht="41.1" customHeight="1">
+      <c r="A56" t="s" s="5">
+        <v>170</v>
+      </c>
+      <c r="B56" t="s" s="5">
+        <v>171</v>
+      </c>
+      <c r="C56" t="s" s="5">
+        <v>172</v>
+      </c>
+      <c r="D56" t="s" s="5">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" ht="41.1" customHeight="1">
+      <c r="A57" t="s" s="5">
+        <v>174</v>
+      </c>
+      <c r="B57" t="s" s="5">
         <v>29</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D55" s="2" t="s">
+      <c r="C57" t="s" s="5">
+        <v>175</v>
+      </c>
+      <c r="D57" t="s" s="5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="58" ht="41.1" customHeight="1">
+      <c r="A58" t="s" s="5">
+        <v>177</v>
+      </c>
+      <c r="B58" t="s" s="5">
         <v>171</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A56" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A57" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="C58" t="s" s="5">
+        <v>178</v>
+      </c>
+      <c r="D58" t="s" s="5">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="59" ht="41.1" customHeight="1">
+      <c r="A59" t="s" s="5">
+        <v>180</v>
+      </c>
+      <c r="B59" t="s" s="5">
         <v>120</v>
       </c>
-      <c r="C57" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A58" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="C59" t="s" s="5">
+        <v>181</v>
+      </c>
+      <c r="D59" t="s" s="5">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" ht="41.1" customHeight="1">
+      <c r="A60" t="s" s="5">
+        <v>183</v>
+      </c>
+      <c r="B60" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A59" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="B59" s="3" t="s">
+      <c r="C60" t="s" s="5">
+        <v>184</v>
+      </c>
+      <c r="D60" t="s" s="5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="61" ht="41.1" customHeight="1">
+      <c r="A61" t="s" s="7">
+        <v>186</v>
+      </c>
+      <c r="B61" t="s" s="7">
         <v>120</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="55.5" customHeight="1">
-      <c r="A60" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="C61" t="s" s="5">
+        <v>187</v>
+      </c>
+      <c r="D61" t="s" s="7">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="62" ht="55.5" customHeight="1">
+      <c r="A62" t="s" s="8">
+        <v>189</v>
+      </c>
+      <c r="B62" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="62.25" customHeight="1">
-      <c r="A61" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="C62" t="s" s="8">
+        <v>190</v>
+      </c>
+      <c r="D62" t="s" s="8">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" ht="62.25" customHeight="1">
+      <c r="A63" t="s" s="8">
+        <v>192</v>
+      </c>
+      <c r="B63" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="C61" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="68.099999999999994" customHeight="1">
-      <c r="A62" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="C63" t="s" s="8">
+        <v>193</v>
+      </c>
+      <c r="D63" t="s" s="8">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="64" ht="68" customHeight="1">
+      <c r="A64" t="s" s="8">
+        <v>195</v>
+      </c>
+      <c r="B64" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="C62" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="62.25" customHeight="1">
-      <c r="A63" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="C64" t="s" s="8">
+        <v>196</v>
+      </c>
+      <c r="D64" t="s" s="8">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" ht="62.25" customHeight="1">
+      <c r="A65" t="s" s="8">
+        <v>198</v>
+      </c>
+      <c r="B65" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="C63" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="57.75" customHeight="1">
-      <c r="A64" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="C65" t="s" s="8">
+        <v>199</v>
+      </c>
+      <c r="D65" t="s" s="8">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="66" ht="57.75" customHeight="1">
+      <c r="A66" t="s" s="8">
+        <v>201</v>
+      </c>
+      <c r="B66" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="C64" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A65" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D65" s="4" t="s">
+      <c r="C66" t="s" s="8">
         <v>202</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A66" s="8" t="s">
+      <c r="D66" t="s" s="8">
         <v>203</v>
       </c>
-      <c r="B66" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C66" s="4" t="s">
+    </row>
+    <row r="67" ht="41.1" customHeight="1">
+      <c r="A67" t="s" s="8">
         <v>204</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="B67" t="s" s="8">
         <v>205</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="29.1" customHeight="1">
-      <c r="A67" s="8" t="s">
+      <c r="C67" t="s" s="8">
         <v>206</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C67" s="4" t="s">
+      <c r="D67" t="s" s="8">
         <v>207</v>
       </c>
-      <c r="D67" s="4" t="s">
+    </row>
+    <row r="68" ht="41.1" customHeight="1">
+      <c r="A68" t="s" s="8">
         <v>208</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A68" s="8" t="s">
+      <c r="B68" t="s" s="8">
+        <v>171</v>
+      </c>
+      <c r="C68" t="s" s="8">
         <v>209</v>
       </c>
-      <c r="B68" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="4" t="s">
+      <c r="D68" t="s" s="8">
         <v>210</v>
       </c>
-      <c r="D68" s="4" t="s">
+    </row>
+    <row r="69" ht="29.1" customHeight="1">
+      <c r="A69" t="s" s="8">
         <v>211</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="54" customHeight="1">
-      <c r="A69" s="8" t="s">
+      <c r="B69" t="s" s="8">
+        <v>171</v>
+      </c>
+      <c r="C69" t="s" s="8">
         <v>212</v>
       </c>
-      <c r="B69" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C69" s="4" t="s">
+      <c r="D69" t="s" s="8">
         <v>213</v>
       </c>
-      <c r="D69" s="4" t="s">
+    </row>
+    <row r="70" ht="41.1" customHeight="1">
+      <c r="A70" t="s" s="8">
         <v>214</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A70" s="8" t="s">
+      <c r="B70" t="s" s="8">
+        <v>171</v>
+      </c>
+      <c r="C70" t="s" s="8">
         <v>215</v>
       </c>
-      <c r="B70" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C70" s="4" t="s">
+      <c r="D70" t="s" s="8">
         <v>216</v>
       </c>
-      <c r="D70" s="4" t="s">
+    </row>
+    <row r="71" ht="54" customHeight="1">
+      <c r="A71" t="s" s="8">
         <v>217</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="41.1" customHeight="1">
-      <c r="A71" s="8" t="s">
+      <c r="B71" t="s" s="8">
+        <v>171</v>
+      </c>
+      <c r="C71" t="s" s="8">
         <v>218</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="D71" t="s" s="8">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="72" ht="41.1" customHeight="1">
+      <c r="A72" t="s" s="8">
+        <v>220</v>
+      </c>
+      <c r="B72" t="s" s="8">
+        <v>171</v>
+      </c>
+      <c r="C72" t="s" s="8">
+        <v>221</v>
+      </c>
+      <c r="D72" t="s" s="8">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" ht="41.1" customHeight="1">
+      <c r="A73" t="s" s="8">
+        <v>223</v>
+      </c>
+      <c r="B73" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="C71" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="51" customHeight="1">
-      <c r="A72" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="C73" t="s" s="8">
+        <v>224</v>
+      </c>
+      <c r="D73" t="s" s="8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="74" ht="51" customHeight="1">
+      <c r="A74" t="s" s="8">
+        <v>226</v>
+      </c>
+      <c r="B74" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="51">
-      <c r="A73" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="B73" s="4" t="s">
+      <c r="C74" t="s" s="8">
+        <v>227</v>
+      </c>
+      <c r="D74" t="s" s="8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="75" ht="64.5" customHeight="1">
+      <c r="A75" t="s" s="8">
+        <v>229</v>
+      </c>
+      <c r="B75" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="38.25">
-      <c r="A74" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="B74" s="4" t="s">
+      <c r="C75" t="s" s="8">
+        <v>230</v>
+      </c>
+      <c r="D75" t="s" s="8">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="76" ht="49.5" customHeight="1">
+      <c r="A76" t="s" s="8">
+        <v>232</v>
+      </c>
+      <c r="B76" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="C74" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="38.25">
-      <c r="A75" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B75" s="4" t="s">
+      <c r="C76" t="s" s="8">
+        <v>233</v>
+      </c>
+      <c r="D76" t="s" s="8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" ht="49.5" customHeight="1">
+      <c r="A77" t="s" s="8">
+        <v>235</v>
+      </c>
+      <c r="B77" t="s" s="8">
         <v>116</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="38.25">
-      <c r="A76" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B76" s="4" t="s">
+      <c r="C77" t="s" s="8">
+        <v>236</v>
+      </c>
+      <c r="D77" t="s" s="8">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="78" ht="49.5" customHeight="1">
+      <c r="A78" t="s" s="8">
+        <v>238</v>
+      </c>
+      <c r="B78" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="38.25">
-      <c r="A77" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="B77" s="4" t="s">
+      <c r="C78" t="s" s="8">
+        <v>239</v>
+      </c>
+      <c r="D78" t="s" s="8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="79" ht="66" customHeight="1">
+      <c r="A79" t="s" s="8">
+        <v>241</v>
+      </c>
+      <c r="B79" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="C77" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="38.25">
-      <c r="A78" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="C79" t="s" s="8">
+        <v>242</v>
+      </c>
+      <c r="D79" t="s" s="8">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="80" ht="49.9" customHeight="1">
+      <c r="A80" t="s" s="5">
+        <v>244</v>
+      </c>
+      <c r="B80" t="s" s="5">
         <v>10</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="38.25">
-      <c r="A79" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="B79" s="4" t="s">
+      <c r="C80" t="s" s="5">
+        <v>245</v>
+      </c>
+      <c r="D80" t="s" s="5">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="81" ht="63.75" customHeight="1">
+      <c r="A81" t="s" s="8">
+        <v>247</v>
+      </c>
+      <c r="B81" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="C79" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" ht="38.25">
-      <c r="A80" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="B80" s="4" t="s">
+      <c r="C81" t="s" s="8">
+        <v>248</v>
+      </c>
+      <c r="D81" t="s" s="8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" ht="53.1" customHeight="1">
+      <c r="A82" t="s" s="8">
+        <v>250</v>
+      </c>
+      <c r="B82" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="38.25">
-      <c r="A81" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="C82" t="s" s="8">
+        <v>251</v>
+      </c>
+      <c r="D82" t="s" s="8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="83" ht="53.1" customHeight="1">
+      <c r="A83" t="s" s="8">
+        <v>253</v>
+      </c>
+      <c r="B83" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="25.5">
-      <c r="A82" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B82" s="4" t="s">
+      <c r="C83" t="s" s="8">
+        <v>254</v>
+      </c>
+      <c r="D83" t="s" s="8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="84" ht="41.1" customHeight="1">
+      <c r="A84" t="s" s="8">
+        <v>255</v>
+      </c>
+      <c r="B84" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" ht="25.5">
-      <c r="A83" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B83" s="4" t="s">
+      <c r="C84" t="s" s="8">
+        <v>256</v>
+      </c>
+      <c r="D84" t="s" s="8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="85" ht="41.1" customHeight="1">
+      <c r="A85" t="s" s="8">
+        <v>258</v>
+      </c>
+      <c r="B85" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="C83" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="38.25">
-      <c r="A84" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="B84" s="4" t="s">
+      <c r="C85" t="s" s="8">
+        <v>259</v>
+      </c>
+      <c r="D85" t="s" s="8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="86" ht="37.65" customHeight="1">
+      <c r="A86" t="s" s="8">
+        <v>261</v>
+      </c>
+      <c r="B86" t="s" s="8">
         <v>123</v>
       </c>
-      <c r="C84" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="25.5">
-      <c r="A85" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="B85" s="10" t="s">
+      <c r="C86" t="s" s="8">
+        <v>262</v>
+      </c>
+      <c r="D86" t="s" s="8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" ht="56.25" customHeight="1">
+      <c r="A87" t="s" s="8">
+        <v>264</v>
+      </c>
+      <c r="B87" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" ht="38.25">
-      <c r="A86" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="B86" s="10" t="s">
+      <c r="C87" t="s" s="8">
+        <v>265</v>
+      </c>
+      <c r="D87" t="s" s="8">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="88" ht="70.5" customHeight="1">
+      <c r="A88" t="s" s="8">
+        <v>267</v>
+      </c>
+      <c r="B88" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C86" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="D86" s="10" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" ht="25.5">
-      <c r="A87" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="B87" s="10" t="s">
+      <c r="C88" t="s" s="8">
+        <v>268</v>
+      </c>
+      <c r="D88" t="s" s="8">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="89" ht="41.1" customHeight="1">
+      <c r="A89" t="s" s="8">
+        <v>270</v>
+      </c>
+      <c r="B89" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C87" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="D87" s="10" t="s">
+      <c r="C89" t="s" s="8">
+        <v>271</v>
+      </c>
+      <c r="D89" t="s" s="8">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="90" ht="53.1" customHeight="1">
+      <c r="A90" s="9"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+    </row>
+    <row r="91" ht="41.1" customHeight="1">
+      <c r="A91" t="s" s="8">
+        <v>273</v>
+      </c>
+      <c r="B91" t="s" s="8">
+        <v>171</v>
+      </c>
+      <c r="C91" t="s" s="8">
+        <v>274</v>
+      </c>
+      <c r="D91" t="s" s="8">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="92" ht="53.1" customHeight="1">
+      <c r="A92" t="s" s="8">
+        <v>276</v>
+      </c>
+      <c r="B92" t="s" s="8">
+        <v>120</v>
+      </c>
+      <c r="C92" t="s" s="8">
+        <v>277</v>
+      </c>
+      <c r="D92" t="s" s="8">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="93" ht="65.1" customHeight="1">
+      <c r="A93" t="s" s="8">
+        <v>279</v>
+      </c>
+      <c r="B93" t="s" s="8">
+        <v>120</v>
+      </c>
+      <c r="C93" t="s" s="8">
+        <v>280</v>
+      </c>
+      <c r="D93" t="s" s="8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="94" ht="41.1" customHeight="1">
+      <c r="A94" t="s" s="8">
+        <v>282</v>
+      </c>
+      <c r="B94" t="s" s="8">
+        <v>120</v>
+      </c>
+      <c r="C94" t="s" s="8">
         <v>283</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="25.5">
-      <c r="A88" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="B88" s="10" t="s">
+      <c r="D94" t="s" s="8">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="95" ht="41.1" customHeight="1">
+      <c r="A95" t="s" s="8">
+        <v>285</v>
+      </c>
+      <c r="B95" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C88" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="25.5">
-      <c r="A89" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="B89" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="38.25">
-      <c r="A90" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="B90" s="10" t="s">
+      <c r="C95" t="s" s="8">
+        <v>286</v>
+      </c>
+      <c r="D95" t="s" s="8">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="96" ht="41.1" customHeight="1">
+      <c r="A96" t="s" s="8">
+        <v>288</v>
+      </c>
+      <c r="B96" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C90" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="38.25">
-      <c r="A91" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="B91" s="10" t="s">
+      <c r="C96" t="s" s="8">
+        <v>289</v>
+      </c>
+      <c r="D96" t="s" s="8">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="97" ht="49" customHeight="1">
+      <c r="A97" t="s" s="8">
+        <v>291</v>
+      </c>
+      <c r="B97" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C91" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="D91" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="38.25">
-      <c r="A92" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B92" s="10" t="s">
+      <c r="C97" t="s" s="8">
+        <v>292</v>
+      </c>
+      <c r="D97" t="s" s="8">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="98" ht="41.1" customHeight="1">
+      <c r="A98" t="s" s="8">
+        <v>294</v>
+      </c>
+      <c r="B98" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C92" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="D92" s="10" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" ht="38.25">
-      <c r="A93" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B93" s="10" t="s">
+      <c r="C98" t="s" s="8">
+        <v>295</v>
+      </c>
+      <c r="D98" t="s" s="8">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="99" ht="49" customHeight="1">
+      <c r="A99" t="s" s="8">
+        <v>297</v>
+      </c>
+      <c r="B99" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C93" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="D93" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" ht="38.25">
-      <c r="A94" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B94" s="10" t="s">
+      <c r="C99" t="s" s="8">
+        <v>298</v>
+      </c>
+      <c r="D99" t="s" s="8">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="100" ht="41.1" customHeight="1">
+      <c r="A100" t="s" s="8">
+        <v>300</v>
+      </c>
+      <c r="B100" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C94" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="D94" s="10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" ht="51">
-      <c r="A95" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="B95" s="10" t="s">
+      <c r="C100" t="s" s="8">
+        <v>301</v>
+      </c>
+      <c r="D100" t="s" s="8">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="101" ht="41.1" customHeight="1">
+      <c r="A101" t="s" s="8">
+        <v>303</v>
+      </c>
+      <c r="B101" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C95" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="D95" s="10" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" ht="38.25">
-      <c r="A96" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="B96" s="10" t="s">
+      <c r="C101" t="s" s="8">
+        <v>304</v>
+      </c>
+      <c r="D101" t="s" s="8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="102" ht="41.1" customHeight="1">
+      <c r="A102" t="s" s="8">
+        <v>306</v>
+      </c>
+      <c r="B102" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C96" s="10" t="s">
-        <v>293</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" ht="51">
-      <c r="A97" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="B97" s="10" t="s">
+      <c r="C102" t="s" s="8">
+        <v>307</v>
+      </c>
+      <c r="D102" t="s" s="8">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="103" ht="41.1" customHeight="1">
+      <c r="A103" t="s" s="8">
+        <v>309</v>
+      </c>
+      <c r="B103" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C97" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D97" s="10" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" ht="25.5">
-      <c r="A98" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="B98" s="10" t="s">
+      <c r="C103" t="s" s="8">
+        <v>310</v>
+      </c>
+      <c r="D103" t="s" s="8">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104" ht="41.1" customHeight="1">
+      <c r="A104" t="s" s="8">
+        <v>312</v>
+      </c>
+      <c r="B104" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C98" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" ht="25.5">
-      <c r="A99" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="B99" s="10" t="s">
+      <c r="C104" t="s" s="8">
+        <v>313</v>
+      </c>
+      <c r="D104" t="s" s="8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="105" ht="41.1" customHeight="1">
+      <c r="A105" t="s" s="8">
+        <v>315</v>
+      </c>
+      <c r="B105" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C99" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="D99" s="10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="25.5">
-      <c r="A100" s="10" t="s">
-        <v>304</v>
-      </c>
-      <c r="B100" s="10" t="s">
+      <c r="C105" t="s" s="8">
+        <v>316</v>
+      </c>
+      <c r="D105" t="s" s="8">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="106" ht="41.1" customHeight="1">
+      <c r="A106" t="s" s="8">
+        <v>318</v>
+      </c>
+      <c r="B106" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C100" s="10" t="s">
-        <v>305</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="38.25">
-      <c r="A101" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="B101" s="10" t="s">
+      <c r="C106" t="s" s="8">
+        <v>319</v>
+      </c>
+      <c r="D106" t="s" s="8">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="107" ht="41.1" customHeight="1">
+      <c r="A107" t="s" s="8">
+        <v>321</v>
+      </c>
+      <c r="B107" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C101" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="D101" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="38.25">
-      <c r="A102" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="B102" s="10" t="s">
+      <c r="C107" t="s" s="8">
+        <v>322</v>
+      </c>
+      <c r="D107" t="s" s="8">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="108" ht="49" customHeight="1">
+      <c r="A108" t="s" s="8">
+        <v>324</v>
+      </c>
+      <c r="B108" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C102" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="38.25">
-      <c r="A103" s="10" t="s">
-        <v>309</v>
-      </c>
-      <c r="B103" s="10" t="s">
+      <c r="C108" t="s" s="8">
+        <v>325</v>
+      </c>
+      <c r="D108" t="s" s="8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="109" ht="41.1" customHeight="1">
+      <c r="A109" t="s" s="8">
+        <v>327</v>
+      </c>
+      <c r="B109" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C103" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="D103" s="10" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="38.25">
-      <c r="A104" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="B104" s="10" t="s">
+      <c r="C109" t="s" s="8">
+        <v>328</v>
+      </c>
+      <c r="D109" t="s" s="8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="110" ht="41.1" customHeight="1">
+      <c r="A110" t="s" s="8">
+        <v>330</v>
+      </c>
+      <c r="B110" t="s" s="8">
         <v>120</v>
       </c>
-      <c r="C104" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D104" s="10" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="25.5">
-      <c r="A105" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="B105" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="51">
-      <c r="A106" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="B106" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="38.25">
-      <c r="A107" s="10" t="s">
-        <v>323</v>
-      </c>
-      <c r="B107" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>327</v>
-      </c>
-      <c r="D107" s="10" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="25.5">
-      <c r="A108" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="B108" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>329</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" ht="18" customHeight="1">
-      <c r="A109" s="23" t="s">
+      <c r="C110" t="s" s="8">
         <v>331</v>
       </c>
-      <c r="B109" s="24"/>
-      <c r="C109" s="24"/>
-      <c r="D109" s="24"/>
-    </row>
-    <row r="110" spans="1:4" ht="27.75" customHeight="1">
-      <c r="A110" s="10" t="s">
+      <c r="D110" t="s" s="8">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="111" ht="41.1" customHeight="1">
+      <c r="A111" t="s" s="11">
+        <v>333</v>
+      </c>
+      <c r="B111" s="12"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="13"/>
+    </row>
+    <row r="112" ht="41.1" customHeight="1">
+      <c r="A112" t="s" s="8">
+        <v>334</v>
+      </c>
+      <c r="B112" t="s" s="8">
+        <v>335</v>
+      </c>
+      <c r="C112" t="s" s="8">
+        <v>336</v>
+      </c>
+      <c r="D112" t="s" s="8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="113" ht="41.1" customHeight="1">
+      <c r="A113" t="s" s="8">
+        <v>338</v>
+      </c>
+      <c r="B113" t="s" s="8">
+        <v>339</v>
+      </c>
+      <c r="C113" t="s" s="8">
         <v>340</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C110" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="D110" s="10" t="s">
+      <c r="D113" t="s" s="8">
         <v>337</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="34.5" customHeight="1">
-      <c r="A111" s="10" t="s">
+    <row r="114" ht="41.1" customHeight="1">
+      <c r="A114" t="s" s="8">
         <v>341</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="D111" s="10" t="s">
+      <c r="B114" t="s" s="8">
+        <v>335</v>
+      </c>
+      <c r="C114" t="s" s="8">
+        <v>342</v>
+      </c>
+      <c r="D114" t="s" s="8">
         <v>337</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="24.75" customHeight="1">
-      <c r="A112" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="B112" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>334</v>
-      </c>
-      <c r="D112" s="10" t="s">
+    <row r="115" ht="41.1" customHeight="1">
+      <c r="A115" t="s" s="8">
+        <v>343</v>
+      </c>
+      <c r="B115" t="s" s="8">
+        <v>335</v>
+      </c>
+      <c r="C115" t="s" s="8">
+        <v>344</v>
+      </c>
+      <c r="D115" t="s" s="8">
         <v>337</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="36" customHeight="1">
-      <c r="A113" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="B113" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="C113" s="10" t="s">
+    <row r="116" ht="41.1" customHeight="1">
+      <c r="A116" t="s" s="8">
+        <v>345</v>
+      </c>
+      <c r="B116" t="s" s="8">
+        <v>346</v>
+      </c>
+      <c r="C116" t="s" s="8">
+        <v>347</v>
+      </c>
+      <c r="D116" t="s" s="8">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="117" ht="49" customHeight="1">
+      <c r="A117" t="s" s="8">
+        <v>348</v>
+      </c>
+      <c r="B117" t="s" s="8">
         <v>335</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="C117" t="s" s="8">
+        <v>349</v>
+      </c>
+      <c r="D117" t="s" s="8">
         <v>337</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A114" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B114" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="D114" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" ht="42" customHeight="1">
-      <c r="A115" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="D115" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" ht="18" customHeight="1">
-      <c r="A116" s="25" t="s">
-        <v>345</v>
-      </c>
-      <c r="B116" s="26"/>
-      <c r="C116" s="26"/>
-      <c r="D116" s="26"/>
-      <c r="E116" s="16"/>
-    </row>
-    <row r="117" spans="1:5" ht="55.5" customHeight="1">
-      <c r="A117" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="B117" s="13" t="s">
+    <row r="118" ht="41.1" customHeight="1">
+      <c r="A118" t="s" s="11">
         <v>350</v>
       </c>
-      <c r="C117" s="13" t="s">
+      <c r="B118" s="12"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="13"/>
+    </row>
+    <row r="119" ht="41.1" customHeight="1">
+      <c r="A119" t="s" s="8">
         <v>351</v>
       </c>
-      <c r="D117" s="13" t="s">
+      <c r="B119" t="s" s="8">
         <v>352</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="18" customHeight="1">
-      <c r="A118" s="17"/>
-      <c r="B118" s="18"/>
-      <c r="C118" s="18"/>
-      <c r="D118" s="19"/>
-    </row>
-    <row r="119" spans="1:5" ht="18" customHeight="1">
-      <c r="A119" s="12"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="12"/>
-    </row>
-    <row r="120" spans="1:5" ht="18" customHeight="1">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-    </row>
-    <row r="121" spans="1:5" ht="18" customHeight="1">
-      <c r="A121" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-    </row>
-    <row r="122" spans="1:5" ht="18" customHeight="1">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-    </row>
-    <row r="123" spans="1:5" ht="18" customHeight="1">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-    </row>
-    <row r="124" spans="1:5" ht="18" customHeight="1">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="15"/>
-    </row>
-    <row r="125" spans="1:5" ht="18" customHeight="1">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
+      <c r="C119" t="s" s="8">
+        <v>353</v>
+      </c>
+      <c r="D119" t="s" s="8">
+        <v>354</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A109:D109"/>
-    <mergeCell ref="A116:D116"/>
+    <mergeCell ref="A111:D111"/>
+    <mergeCell ref="A118:D118"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/RR/Esterni/Analisi dei Requisiti/Requisiti/Specifica/specifica.xlsx
+++ b/RR/Esterni/Analisi dei Requisiti/Requisiti/Specifica/specifica.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="354">
   <si>
     <t>Specifica Requisiti</t>
   </si>
@@ -650,9 +652,6 @@
     <t>--&gt;RF61.1.13</t>
   </si>
   <si>
-    <t>Funzionale Obbliatorio</t>
-  </si>
-  <si>
     <t>L'utente deve essere in grado di effettuare uno zoom in una parte del frame</t>
   </si>
   <si>
@@ -1110,11 +1109,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1127,11 +1123,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Verdana"/>
-    </font>
-    <font>
-      <sz val="15"/>
       <color indexed="8"/>
       <name val="Verdana"/>
     </font>
@@ -1254,80 +1245,137 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffe061"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFE061"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -1519,7 +1567,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1528,7 +1576,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1537,7 +1585,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -1546,7 +1594,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1555,7 +1603,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1564,7 +1612,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="40000" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1676,8 +1724,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -1685,14 +1733,14 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1711,7 +1759,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1719,7 +1767,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -1747,7 +1795,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1773,7 +1821,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1799,7 +1847,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1825,7 +1873,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1851,7 +1899,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1877,7 +1925,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1903,7 +1951,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1929,7 +1977,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1955,7 +2003,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1968,9 +2016,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -1986,7 +2040,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2005,7 +2059,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2031,7 +2085,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2057,7 +2111,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2083,7 +2137,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2109,7 +2163,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2135,7 +2189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2161,7 +2215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2187,7 +2241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2213,7 +2267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2239,7 +2293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2252,9 +2306,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2267,7 +2327,7 @@
         </a:ln>
         <a:effectLst/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2286,7 +2346,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2316,7 +2376,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2342,7 +2402,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2368,7 +2428,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2394,7 +2454,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2420,7 +2480,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2446,7 +2506,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2472,7 +2532,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2498,7 +2558,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2524,7 +2584,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2537,1672 +2597,1681 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D119"/>
+  <dimension ref="A1:IV119"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="A100" sqref="A100"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.0938" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" style="1" customWidth="1"/>
-    <col min="5" max="256" width="8.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.09765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.09765625" style="1" customWidth="1"/>
+    <col min="5" max="256" width="8.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.95" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:4" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" ht="20.65" customHeight="1">
-      <c r="A2" t="s" s="5">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="10"/>
+    </row>
+    <row r="2" spans="1:4" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="5">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="86.85" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:4" ht="86.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s" s="5">
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s" s="5">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s" s="5">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="86.85" customHeight="1">
-      <c r="A4" t="s" s="5">
+    <row r="4" spans="1:4" ht="86.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s" s="5">
+      <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="5">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s" s="5">
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" ht="86.85" customHeight="1">
-      <c r="A5" t="s" s="5">
+    <row r="5" spans="1:4" ht="86.85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s" s="5">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" t="s" s="5">
+      <c r="C5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s" s="5">
+      <c r="D5" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" ht="44.45" customHeight="1">
-      <c r="A6" t="s" s="5">
+    <row r="6" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B6" t="s" s="5">
+      <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s" s="5">
+      <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s" s="5">
+      <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="44.45" customHeight="1">
-      <c r="A7" t="s" s="5">
+    <row r="7" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s" s="5">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s" s="5">
+      <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s" s="5">
+      <c r="D7" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" ht="44.45" customHeight="1">
-      <c r="A8" t="s" s="5">
+    <row r="8" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s" s="5">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="5">
+      <c r="C8" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s" s="5">
+      <c r="D8" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="9" ht="72.4" customHeight="1">
-      <c r="A9" t="s" s="5">
+    <row r="9" spans="1:4" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s" s="5">
+      <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C9" t="s" s="5">
+      <c r="C9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s" s="5">
+      <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" ht="44.45" customHeight="1">
-      <c r="A10" t="s" s="5">
+    <row r="10" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s" s="5">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s" s="5">
+      <c r="C10" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s" s="5">
+      <c r="D10" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" ht="44.45" customHeight="1">
-      <c r="A11" t="s" s="5">
+    <row r="11" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B11" t="s" s="5">
+      <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s" s="5">
+      <c r="C11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D11" t="s" s="5">
+      <c r="D11" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" ht="32.45" customHeight="1">
-      <c r="A12" t="s" s="5">
+    <row r="12" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B12" t="s" s="5">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="5">
+      <c r="C12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D12" t="s" s="5">
+      <c r="D12" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" ht="32.45" customHeight="1">
-      <c r="A13" t="s" s="5">
+    <row r="13" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B13" t="s" s="5">
+      <c r="B13" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C13" t="s" s="5">
+      <c r="C13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D13" t="s" s="5">
+      <c r="D13" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="14" ht="44.45" customHeight="1">
-      <c r="A14" t="s" s="5">
+    <row r="14" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" t="s" s="5">
+      <c r="B14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s" s="5">
+      <c r="C14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D14" t="s" s="5">
+      <c r="D14" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" ht="56.45" customHeight="1">
-      <c r="A15" t="s" s="5">
+    <row r="15" spans="1:4" ht="56.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B15" t="s" s="5">
+      <c r="B15" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s" s="5">
+      <c r="C15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D15" t="s" s="5">
+      <c r="D15" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" ht="32.45" customHeight="1">
-      <c r="A16" t="s" s="5">
+    <row r="16" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B16" t="s" s="5">
+      <c r="B16" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C16" t="s" s="5">
+      <c r="C16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D16" t="s" s="5">
+      <c r="D16" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="17" ht="44.45" customHeight="1">
-      <c r="A17" t="s" s="5">
+    <row r="17" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B17" t="s" s="5">
+      <c r="B17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C17" t="s" s="5">
+      <c r="C17" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D17" t="s" s="5">
+      <c r="D17" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="18" ht="56.45" customHeight="1">
-      <c r="A18" t="s" s="5">
+    <row r="18" spans="1:4" ht="56.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B18" t="s" s="5">
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" t="s" s="5">
+      <c r="C18" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D18" t="s" s="5">
+      <c r="D18" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" ht="56.45" customHeight="1">
-      <c r="A19" t="s" s="5">
+    <row r="19" spans="1:4" ht="56.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B19" t="s" s="5">
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" t="s" s="5">
+      <c r="C19" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D19" t="s" s="5">
+      <c r="D19" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" ht="44.45" customHeight="1">
-      <c r="A20" t="s" s="5">
+    <row r="20" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B20" t="s" s="5">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C20" t="s" s="5">
+      <c r="C20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D20" t="s" s="5">
+      <c r="D20" s="2" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" ht="32.45" customHeight="1">
-      <c r="A21" t="s" s="5">
+    <row r="21" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B21" t="s" s="5">
+      <c r="B21" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C21" t="s" s="5">
+      <c r="C21" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D21" t="s" s="5">
+      <c r="D21" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" ht="32.45" customHeight="1">
-      <c r="A22" t="s" s="5">
+    <row r="22" spans="1:4" ht="32.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B22" t="s" s="5">
+      <c r="B22" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s" s="5">
+      <c r="C22" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D22" t="s" s="5">
+      <c r="D22" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="23" ht="44.45" customHeight="1">
-      <c r="A23" t="s" s="5">
+    <row r="23" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B23" t="s" s="5">
+      <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C23" t="s" s="5">
+      <c r="C23" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D23" t="s" s="5">
+      <c r="D23" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="24" ht="44.45" customHeight="1">
-      <c r="A24" t="s" s="5">
+    <row r="24" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B24" t="s" s="5">
+      <c r="B24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C24" t="s" s="5">
+      <c r="C24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D24" t="s" s="5">
+      <c r="D24" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="25" ht="44.45" customHeight="1">
-      <c r="A25" t="s" s="5">
+    <row r="25" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B25" t="s" s="5">
+      <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C25" t="s" s="5">
+      <c r="C25" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D25" t="s" s="5">
+      <c r="D25" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="26" ht="44.45" customHeight="1">
-      <c r="A26" t="s" s="5">
+    <row r="26" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B26" t="s" s="5">
+      <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C26" t="s" s="5">
+      <c r="C26" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D26" t="s" s="5">
+      <c r="D26" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="27" ht="44.45" customHeight="1">
-      <c r="A27" t="s" s="5">
+    <row r="27" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B27" t="s" s="5">
+      <c r="B27" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C27" t="s" s="5">
+      <c r="C27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D27" t="s" s="5">
+      <c r="D27" s="2" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" ht="68.45" customHeight="1">
-      <c r="A28" t="s" s="5">
+    <row r="28" spans="1:4" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B28" t="s" s="5">
+      <c r="B28" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="5">
+      <c r="C28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D28" t="s" s="5">
+      <c r="D28" s="2" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" ht="68.45" customHeight="1">
-      <c r="A29" t="s" s="5">
+    <row r="29" spans="1:4" ht="68.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B29" t="s" s="5">
+      <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29" t="s" s="5">
+      <c r="C29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D29" t="s" s="5">
+      <c r="D29" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="30" ht="44.45" customHeight="1">
-      <c r="A30" t="s" s="5">
+    <row r="30" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B30" t="s" s="5">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" t="s" s="5">
+      <c r="C30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D30" t="s" s="5">
+      <c r="D30" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="31" ht="56.45" customHeight="1">
-      <c r="A31" t="s" s="5">
+    <row r="31" spans="1:4" ht="56.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B31" t="s" s="5">
+      <c r="B31" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C31" t="s" s="5">
+      <c r="C31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D31" t="s" s="5">
+      <c r="D31" s="2" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="32" ht="44.45" customHeight="1">
-      <c r="A32" t="s" s="5">
+    <row r="32" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B32" t="s" s="5">
+      <c r="B32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C32" t="s" s="5">
+      <c r="C32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D32" t="s" s="5">
+      <c r="D32" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="33" ht="44.45" customHeight="1">
-      <c r="A33" t="s" s="5">
+    <row r="33" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B33" t="s" s="5">
+      <c r="B33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="5">
+      <c r="C33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D33" t="s" s="5">
+      <c r="D33" s="2" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" ht="44.45" customHeight="1">
-      <c r="A34" t="s" s="5">
+    <row r="34" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B34" t="s" s="5">
+      <c r="B34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="5">
+      <c r="C34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D34" t="s" s="5">
+      <c r="D34" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" ht="44.45" customHeight="1">
-      <c r="A35" t="s" s="5">
+    <row r="35" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B35" t="s" s="5">
+      <c r="B35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="5">
+      <c r="C35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D35" t="s" s="5">
+      <c r="D35" s="2" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="36" ht="44.45" customHeight="1">
-      <c r="A36" t="s" s="5">
+    <row r="36" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B36" t="s" s="5">
+      <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C36" t="s" s="5">
+      <c r="C36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D36" t="s" s="5">
+      <c r="D36" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="37" ht="44.45" customHeight="1">
-      <c r="A37" t="s" s="5">
+    <row r="37" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B37" t="s" s="5">
+      <c r="B37" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C37" t="s" s="5">
+      <c r="C37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D37" t="s" s="5">
+      <c r="D37" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" ht="44.45" customHeight="1">
-      <c r="A38" t="s" s="5">
+    <row r="38" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B38" t="s" s="5">
+      <c r="B38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C38" t="s" s="5">
+      <c r="C38" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D38" t="s" s="5">
+      <c r="D38" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="39" ht="44.45" customHeight="1">
-      <c r="A39" t="s" s="5">
+    <row r="39" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B39" t="s" s="5">
+      <c r="B39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C39" t="s" s="5">
+      <c r="C39" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D39" t="s" s="5">
+      <c r="D39" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="40" ht="56.45" customHeight="1">
-      <c r="A40" t="s" s="5">
+    <row r="40" spans="1:4" ht="56.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B40" t="s" s="5">
+      <c r="B40" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C40" t="s" s="5">
+      <c r="C40" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D40" t="s" s="5">
+      <c r="D40" s="2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" ht="44.45" customHeight="1">
-      <c r="A41" t="s" s="6">
+    <row r="41" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B41" t="s" s="6">
+      <c r="B41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C41" t="s" s="6">
+      <c r="C41" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D41" t="s" s="6">
+      <c r="D41" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="42" ht="44.45" customHeight="1">
-      <c r="A42" t="s" s="6">
+    <row r="42" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="B42" t="s" s="6">
+      <c r="B42" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C42" t="s" s="6">
+      <c r="C42" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D42" t="s" s="6">
+      <c r="D42" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="43" ht="44.45" customHeight="1">
-      <c r="A43" t="s" s="5">
+    <row r="43" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B43" t="s" s="5">
+      <c r="B43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="5">
+      <c r="C43" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D43" t="s" s="5">
+      <c r="D43" s="2" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="44" ht="44.45" customHeight="1">
-      <c r="A44" t="s" s="5">
+    <row r="44" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B44" t="s" s="5">
+      <c r="B44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="5">
+      <c r="C44" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D44" t="s" s="5">
+      <c r="D44" s="2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="45" ht="44.45" customHeight="1">
-      <c r="A45" t="s" s="5">
+    <row r="45" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B45" t="s" s="5">
+      <c r="B45" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="5">
+      <c r="C45" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D45" t="s" s="5">
+      <c r="D45" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="46" ht="44.45" customHeight="1">
-      <c r="A46" t="s" s="5">
+    <row r="46" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B46" t="s" s="5">
+      <c r="B46" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C46" t="s" s="5">
+      <c r="C46" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D46" t="s" s="5">
+      <c r="D46" s="2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="47" ht="44.45" customHeight="1">
-      <c r="A47" t="s" s="5">
+    <row r="47" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B47" t="s" s="5">
+      <c r="B47" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="5">
+      <c r="C47" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="D47" t="s" s="5">
+      <c r="D47" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="48" ht="44.45" customHeight="1">
-      <c r="A48" t="s" s="5">
+    <row r="48" spans="1:4" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B48" t="s" s="5">
+      <c r="B48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="5">
+      <c r="C48" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D48" t="s" s="5">
+      <c r="D48" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="49" ht="67.15" customHeight="1">
-      <c r="A49" t="s" s="5">
+    <row r="49" spans="1:4" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B49" t="s" s="5">
+      <c r="B49" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C49" t="s" s="5">
+      <c r="C49" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="D49" t="s" s="5">
+      <c r="D49" s="2" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="50" ht="65.1" customHeight="1">
-      <c r="A50" t="s" s="5">
+    <row r="50" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B50" t="s" s="5">
+      <c r="B50" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C50" t="s" s="5">
+      <c r="C50" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D50" t="s" s="5">
+      <c r="D50" s="2" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="51" ht="53.1" customHeight="1">
-      <c r="A51" t="s" s="5">
+    <row r="51" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B51" t="s" s="5">
+      <c r="B51" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C51" t="s" s="5">
+      <c r="C51" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D51" t="s" s="5">
+      <c r="D51" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="52" ht="53.1" customHeight="1">
-      <c r="A52" t="s" s="5">
+    <row r="52" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B52" t="s" s="5">
+      <c r="B52" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C52" t="s" s="5">
+      <c r="C52" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D52" t="s" s="5">
+      <c r="D52" s="2" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="53" ht="53.1" customHeight="1">
-      <c r="A53" t="s" s="5">
+    <row r="53" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B53" t="s" s="5">
+      <c r="B53" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C53" t="s" s="5">
+      <c r="C53" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="D53" t="s" s="5">
+      <c r="D53" s="2" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="54" ht="53.1" customHeight="1">
-      <c r="A54" t="s" s="5">
+    <row r="54" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B54" t="s" s="5">
+      <c r="B54" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C54" t="s" s="5">
+      <c r="C54" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D54" t="s" s="5">
+      <c r="D54" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="55" ht="42.6" customHeight="1">
-      <c r="A55" t="s" s="5">
+    <row r="55" spans="1:4" ht="42.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B55" t="s" s="5">
+      <c r="B55" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C55" t="s" s="5">
+      <c r="C55" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="D55" t="s" s="5">
+      <c r="D55" s="2" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="56" ht="41.1" customHeight="1">
-      <c r="A56" t="s" s="5">
+    <row r="56" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B56" t="s" s="5">
+      <c r="B56" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C56" t="s" s="5">
+      <c r="C56" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D56" t="s" s="5">
+      <c r="D56" s="2" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="57" ht="41.1" customHeight="1">
-      <c r="A57" t="s" s="5">
+    <row r="57" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B57" t="s" s="5">
+      <c r="B57" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C57" t="s" s="5">
+      <c r="C57" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D57" t="s" s="5">
+      <c r="D57" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="58" ht="41.1" customHeight="1">
-      <c r="A58" t="s" s="5">
+    <row r="58" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="B58" t="s" s="5">
+      <c r="B58" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C58" t="s" s="5">
+      <c r="C58" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D58" t="s" s="5">
+      <c r="D58" s="2" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="59" ht="41.1" customHeight="1">
-      <c r="A59" t="s" s="5">
+    <row r="59" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B59" t="s" s="5">
+      <c r="B59" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C59" t="s" s="5">
+      <c r="C59" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D59" t="s" s="5">
+      <c r="D59" s="2" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="60" ht="41.1" customHeight="1">
-      <c r="A60" t="s" s="5">
+    <row r="60" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B60" t="s" s="5">
+      <c r="B60" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C60" t="s" s="5">
+      <c r="C60" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="D60" t="s" s="5">
+      <c r="D60" s="2" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="61" ht="41.1" customHeight="1">
-      <c r="A61" t="s" s="7">
+    <row r="61" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B61" t="s" s="7">
+      <c r="B61" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C61" t="s" s="5">
+      <c r="C61" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="D61" t="s" s="7">
+      <c r="D61" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="62" ht="55.5" customHeight="1">
-      <c r="A62" t="s" s="8">
+    <row r="62" spans="1:4" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B62" t="s" s="8">
+      <c r="B62" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="8">
+      <c r="C62" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="D62" t="s" s="8">
+      <c r="D62" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="63" ht="62.25" customHeight="1">
-      <c r="A63" t="s" s="8">
+    <row r="63" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B63" t="s" s="8">
+      <c r="B63" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="8">
+      <c r="C63" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="D63" t="s" s="8">
+      <c r="D63" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="64" ht="68" customHeight="1">
-      <c r="A64" t="s" s="8">
+    <row r="64" spans="1:4" ht="68.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B64" t="s" s="8">
+      <c r="B64" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="8">
+      <c r="C64" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="D64" t="s" s="8">
+      <c r="D64" s="5" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="65" ht="62.25" customHeight="1">
-      <c r="A65" t="s" s="8">
+    <row r="65" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B65" t="s" s="8">
+      <c r="B65" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="8">
+      <c r="C65" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="D65" t="s" s="8">
+      <c r="D65" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="66" ht="57.75" customHeight="1">
-      <c r="A66" t="s" s="8">
+    <row r="66" spans="1:4" ht="57.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="B66" t="s" s="8">
+      <c r="B66" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="8">
+      <c r="C66" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="D66" t="s" s="8">
+      <c r="D66" s="5" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="67" ht="41.1" customHeight="1">
-      <c r="A67" t="s" s="8">
+    <row r="67" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B67" t="s" s="8">
+      <c r="B67" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C67" t="s" s="8">
+      <c r="D67" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D67" t="s" s="8">
+    </row>
+    <row r="68" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="68" ht="41.1" customHeight="1">
-      <c r="A68" t="s" s="8">
+      <c r="B68" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="B68" t="s" s="8">
+      <c r="D68" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="29.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C68" t="s" s="8">
-        <v>209</v>
-      </c>
-      <c r="D68" t="s" s="8">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="69" ht="29.1" customHeight="1">
-      <c r="A69" t="s" s="8">
+      <c r="C69" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B69" t="s" s="8">
+      <c r="D69" s="5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C69" t="s" s="8">
-        <v>212</v>
-      </c>
-      <c r="D69" t="s" s="8">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="70" ht="41.1" customHeight="1">
-      <c r="A70" t="s" s="8">
+      <c r="C70" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B70" t="s" s="8">
+      <c r="D70" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="B71" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C70" t="s" s="8">
-        <v>215</v>
-      </c>
-      <c r="D70" t="s" s="8">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="71" ht="54" customHeight="1">
-      <c r="A71" t="s" s="8">
+      <c r="C71" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="B71" t="s" s="8">
+      <c r="D71" s="5" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B72" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C71" t="s" s="8">
-        <v>218</v>
-      </c>
-      <c r="D71" t="s" s="8">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="72" ht="41.1" customHeight="1">
-      <c r="A72" t="s" s="8">
+      <c r="C72" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B72" t="s" s="8">
+      <c r="D72" s="5" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="49.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" ht="37.700000000000003" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="7"/>
+    </row>
+    <row r="91" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B91" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C72" t="s" s="8">
-        <v>221</v>
-      </c>
-      <c r="D72" t="s" s="8">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="73" ht="41.1" customHeight="1">
-      <c r="A73" t="s" s="8">
-        <v>223</v>
-      </c>
-      <c r="B73" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C73" t="s" s="8">
-        <v>224</v>
-      </c>
-      <c r="D73" t="s" s="8">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="74" ht="51" customHeight="1">
-      <c r="A74" t="s" s="8">
-        <v>226</v>
-      </c>
-      <c r="B74" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C74" t="s" s="8">
-        <v>227</v>
-      </c>
-      <c r="D74" t="s" s="8">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="75" ht="64.5" customHeight="1">
-      <c r="A75" t="s" s="8">
-        <v>229</v>
-      </c>
-      <c r="B75" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C75" t="s" s="8">
-        <v>230</v>
-      </c>
-      <c r="D75" t="s" s="8">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="76" ht="49.5" customHeight="1">
-      <c r="A76" t="s" s="8">
-        <v>232</v>
-      </c>
-      <c r="B76" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C76" t="s" s="8">
-        <v>233</v>
-      </c>
-      <c r="D76" t="s" s="8">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="77" ht="49.5" customHeight="1">
-      <c r="A77" t="s" s="8">
-        <v>235</v>
-      </c>
-      <c r="B77" t="s" s="8">
-        <v>116</v>
-      </c>
-      <c r="C77" t="s" s="8">
-        <v>236</v>
-      </c>
-      <c r="D77" t="s" s="8">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="78" ht="49.5" customHeight="1">
-      <c r="A78" t="s" s="8">
-        <v>238</v>
-      </c>
-      <c r="B78" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C78" t="s" s="8">
-        <v>239</v>
-      </c>
-      <c r="D78" t="s" s="8">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="79" ht="66" customHeight="1">
-      <c r="A79" t="s" s="8">
-        <v>241</v>
-      </c>
-      <c r="B79" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C79" t="s" s="8">
-        <v>242</v>
-      </c>
-      <c r="D79" t="s" s="8">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="80" ht="49.9" customHeight="1">
-      <c r="A80" t="s" s="5">
-        <v>244</v>
-      </c>
-      <c r="B80" t="s" s="5">
-        <v>10</v>
-      </c>
-      <c r="C80" t="s" s="5">
-        <v>245</v>
-      </c>
-      <c r="D80" t="s" s="5">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="81" ht="63.75" customHeight="1">
-      <c r="A81" t="s" s="8">
-        <v>247</v>
-      </c>
-      <c r="B81" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C81" t="s" s="8">
-        <v>248</v>
-      </c>
-      <c r="D81" t="s" s="8">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="82" ht="53.1" customHeight="1">
-      <c r="A82" t="s" s="8">
-        <v>250</v>
-      </c>
-      <c r="B82" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C82" t="s" s="8">
-        <v>251</v>
-      </c>
-      <c r="D82" t="s" s="8">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="83" ht="53.1" customHeight="1">
-      <c r="A83" t="s" s="8">
-        <v>253</v>
-      </c>
-      <c r="B83" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C83" t="s" s="8">
-        <v>254</v>
-      </c>
-      <c r="D83" t="s" s="8">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="84" ht="41.1" customHeight="1">
-      <c r="A84" t="s" s="8">
-        <v>255</v>
-      </c>
-      <c r="B84" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C84" t="s" s="8">
-        <v>256</v>
-      </c>
-      <c r="D84" t="s" s="8">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="85" ht="41.1" customHeight="1">
-      <c r="A85" t="s" s="8">
-        <v>258</v>
-      </c>
-      <c r="B85" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C85" t="s" s="8">
-        <v>259</v>
-      </c>
-      <c r="D85" t="s" s="8">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="86" ht="37.65" customHeight="1">
-      <c r="A86" t="s" s="8">
-        <v>261</v>
-      </c>
-      <c r="B86" t="s" s="8">
-        <v>123</v>
-      </c>
-      <c r="C86" t="s" s="8">
-        <v>262</v>
-      </c>
-      <c r="D86" t="s" s="8">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="87" ht="56.25" customHeight="1">
-      <c r="A87" t="s" s="8">
-        <v>264</v>
-      </c>
-      <c r="B87" t="s" s="8">
+      <c r="C91" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="53.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C87" t="s" s="8">
-        <v>265</v>
-      </c>
-      <c r="D87" t="s" s="8">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="88" ht="70.5" customHeight="1">
-      <c r="A88" t="s" s="8">
-        <v>267</v>
-      </c>
-      <c r="B88" t="s" s="8">
+      <c r="C92" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B93" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C88" t="s" s="8">
-        <v>268</v>
-      </c>
-      <c r="D88" t="s" s="8">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="89" ht="41.1" customHeight="1">
-      <c r="A89" t="s" s="8">
-        <v>270</v>
-      </c>
-      <c r="B89" t="s" s="8">
+      <c r="C93" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="B94" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C89" t="s" s="8">
-        <v>271</v>
-      </c>
-      <c r="D89" t="s" s="8">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="90" ht="53.1" customHeight="1">
-      <c r="A90" s="9"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-    </row>
-    <row r="91" ht="41.1" customHeight="1">
-      <c r="A91" t="s" s="8">
-        <v>273</v>
-      </c>
-      <c r="B91" t="s" s="8">
-        <v>171</v>
-      </c>
-      <c r="C91" t="s" s="8">
-        <v>274</v>
-      </c>
-      <c r="D91" t="s" s="8">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="92" ht="53.1" customHeight="1">
-      <c r="A92" t="s" s="8">
-        <v>276</v>
-      </c>
-      <c r="B92" t="s" s="8">
+      <c r="C94" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C92" t="s" s="8">
-        <v>277</v>
-      </c>
-      <c r="D92" t="s" s="8">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="93" ht="65.1" customHeight="1">
-      <c r="A93" t="s" s="8">
-        <v>279</v>
-      </c>
-      <c r="B93" t="s" s="8">
+      <c r="C95" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C93" t="s" s="8">
-        <v>280</v>
-      </c>
-      <c r="D93" t="s" s="8">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="94" ht="41.1" customHeight="1">
-      <c r="A94" t="s" s="8">
-        <v>282</v>
-      </c>
-      <c r="B94" t="s" s="8">
+      <c r="C96" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="B97" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C94" t="s" s="8">
-        <v>283</v>
-      </c>
-      <c r="D94" t="s" s="8">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="95" ht="41.1" customHeight="1">
-      <c r="A95" t="s" s="8">
-        <v>285</v>
-      </c>
-      <c r="B95" t="s" s="8">
+      <c r="C97" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="B98" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C95" t="s" s="8">
-        <v>286</v>
-      </c>
-      <c r="D95" t="s" s="8">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="96" ht="41.1" customHeight="1">
-      <c r="A96" t="s" s="8">
-        <v>288</v>
-      </c>
-      <c r="B96" t="s" s="8">
+      <c r="C98" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B99" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C96" t="s" s="8">
-        <v>289</v>
-      </c>
-      <c r="D96" t="s" s="8">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="97" ht="49" customHeight="1">
-      <c r="A97" t="s" s="8">
-        <v>291</v>
-      </c>
-      <c r="B97" t="s" s="8">
+      <c r="C99" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="B100" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C97" t="s" s="8">
-        <v>292</v>
-      </c>
-      <c r="D97" t="s" s="8">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="98" ht="41.1" customHeight="1">
-      <c r="A98" t="s" s="8">
-        <v>294</v>
-      </c>
-      <c r="B98" t="s" s="8">
+      <c r="C100" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="B101" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C98" t="s" s="8">
-        <v>295</v>
-      </c>
-      <c r="D98" t="s" s="8">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="99" ht="49" customHeight="1">
-      <c r="A99" t="s" s="8">
-        <v>297</v>
-      </c>
-      <c r="B99" t="s" s="8">
+      <c r="C101" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B102" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C99" t="s" s="8">
-        <v>298</v>
-      </c>
-      <c r="D99" t="s" s="8">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="100" ht="41.1" customHeight="1">
-      <c r="A100" t="s" s="8">
-        <v>300</v>
-      </c>
-      <c r="B100" t="s" s="8">
+      <c r="C102" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D102" s="5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C100" t="s" s="8">
-        <v>301</v>
-      </c>
-      <c r="D100" t="s" s="8">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="101" ht="41.1" customHeight="1">
-      <c r="A101" t="s" s="8">
-        <v>303</v>
-      </c>
-      <c r="B101" t="s" s="8">
+      <c r="C103" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B104" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C101" t="s" s="8">
-        <v>304</v>
-      </c>
-      <c r="D101" t="s" s="8">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="102" ht="41.1" customHeight="1">
-      <c r="A102" t="s" s="8">
-        <v>306</v>
-      </c>
-      <c r="B102" t="s" s="8">
+      <c r="C104" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="B105" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C102" t="s" s="8">
-        <v>307</v>
-      </c>
-      <c r="D102" t="s" s="8">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="103" ht="41.1" customHeight="1">
-      <c r="A103" t="s" s="8">
-        <v>309</v>
-      </c>
-      <c r="B103" t="s" s="8">
+      <c r="C105" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="B106" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C103" t="s" s="8">
-        <v>310</v>
-      </c>
-      <c r="D103" t="s" s="8">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="104" ht="41.1" customHeight="1">
-      <c r="A104" t="s" s="8">
-        <v>312</v>
-      </c>
-      <c r="B104" t="s" s="8">
+      <c r="C106" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="B107" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C104" t="s" s="8">
-        <v>313</v>
-      </c>
-      <c r="D104" t="s" s="8">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="105" ht="41.1" customHeight="1">
-      <c r="A105" t="s" s="8">
-        <v>315</v>
-      </c>
-      <c r="B105" t="s" s="8">
+      <c r="C107" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="B108" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C105" t="s" s="8">
-        <v>316</v>
-      </c>
-      <c r="D105" t="s" s="8">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="106" ht="41.1" customHeight="1">
-      <c r="A106" t="s" s="8">
-        <v>318</v>
-      </c>
-      <c r="B106" t="s" s="8">
+      <c r="C108" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="B109" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C106" t="s" s="8">
-        <v>319</v>
-      </c>
-      <c r="D106" t="s" s="8">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="107" ht="41.1" customHeight="1">
-      <c r="A107" t="s" s="8">
-        <v>321</v>
-      </c>
-      <c r="B107" t="s" s="8">
+      <c r="C109" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B110" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="C107" t="s" s="8">
-        <v>322</v>
-      </c>
-      <c r="D107" t="s" s="8">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="108" ht="49" customHeight="1">
-      <c r="A108" t="s" s="8">
-        <v>324</v>
-      </c>
-      <c r="B108" t="s" s="8">
-        <v>120</v>
-      </c>
-      <c r="C108" t="s" s="8">
-        <v>325</v>
-      </c>
-      <c r="D108" t="s" s="8">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="109" ht="41.1" customHeight="1">
-      <c r="A109" t="s" s="8">
-        <v>327</v>
-      </c>
-      <c r="B109" t="s" s="8">
-        <v>120</v>
-      </c>
-      <c r="C109" t="s" s="8">
-        <v>328</v>
-      </c>
-      <c r="D109" t="s" s="8">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="110" ht="41.1" customHeight="1">
-      <c r="A110" t="s" s="8">
+      <c r="C110" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B110" t="s" s="8">
-        <v>120</v>
-      </c>
-      <c r="C110" t="s" s="8">
+      <c r="D110" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D110" t="s" s="8">
+    </row>
+    <row r="111" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="11" t="s">
         <v>332</v>
-      </c>
-    </row>
-    <row r="111" ht="41.1" customHeight="1">
-      <c r="A111" t="s" s="11">
-        <v>333</v>
       </c>
       <c r="B111" s="12"/>
       <c r="C111" s="12"/>
       <c r="D111" s="13"/>
     </row>
-    <row r="112" ht="41.1" customHeight="1">
-      <c r="A112" t="s" s="8">
+    <row r="112" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B112" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B112" t="s" s="8">
+      <c r="C112" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C112" t="s" s="8">
+      <c r="D112" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D112" t="s" s="8">
+    </row>
+    <row r="113" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="113" ht="41.1" customHeight="1">
-      <c r="A113" t="s" s="8">
+      <c r="B113" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="B113" t="s" s="8">
+      <c r="C113" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C113" t="s" s="8">
+      <c r="D113" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D113" t="s" s="8">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="114" ht="41.1" customHeight="1">
-      <c r="A114" t="s" s="8">
+      <c r="B114" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C114" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B114" t="s" s="8">
-        <v>335</v>
-      </c>
-      <c r="C114" t="s" s="8">
+      <c r="D114" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D114" t="s" s="8">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="115" ht="41.1" customHeight="1">
-      <c r="A115" t="s" s="8">
+      <c r="B115" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C115" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B115" t="s" s="8">
-        <v>335</v>
-      </c>
-      <c r="C115" t="s" s="8">
+      <c r="D115" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D115" t="s" s="8">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="116" ht="41.1" customHeight="1">
-      <c r="A116" t="s" s="8">
+      <c r="B116" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B116" t="s" s="8">
+      <c r="C116" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="C116" t="s" s="8">
+      <c r="D116" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" ht="48.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D116" t="s" s="8">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="117" ht="49" customHeight="1">
-      <c r="A117" t="s" s="8">
+      <c r="B117" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C117" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B117" t="s" s="8">
-        <v>335</v>
-      </c>
-      <c r="C117" t="s" s="8">
+      <c r="D117" s="5" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="D117" t="s" s="8">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="118" ht="41.1" customHeight="1">
-      <c r="A118" t="s" s="11">
-        <v>350</v>
       </c>
       <c r="B118" s="12"/>
       <c r="C118" s="12"/>
       <c r="D118" s="13"/>
     </row>
-    <row r="119" ht="41.1" customHeight="1">
-      <c r="A119" t="s" s="8">
+    <row r="119" spans="1:4" ht="41.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="B119" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="B119" t="s" s="8">
+      <c r="C119" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="C119" t="s" s="8">
+      <c r="D119" s="5" t="s">
         <v>353</v>
-      </c>
-      <c r="D119" t="s" s="8">
-        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -4212,7 +4281,7 @@
     <mergeCell ref="A118:D118"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;L&amp;"Arial,Regular"&amp;12&amp;K000000	&amp;P</oddFooter>
   </headerFooter>
